--- a/Data/RGGI_2_NYCA_2019.xlsx
+++ b/Data/RGGI_2_NYCA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDB6173-129F-41A1-AE01-DA54FADFB4E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081A2D1-3C5E-459C-A46F-1769552EE019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46CA5E29-DD96-4F6B-BE5F-3EC339671D52}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1B45A8-B963-4791-BC96-9A415EE570BA}">
   <dimension ref="A1:U184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,6 +1680,7 @@
     <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
@@ -1882,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="3">
-        <v>23792</v>
+        <v>23791</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1947,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="3">
-        <v>23793</v>
+        <v>23791</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -2922,7 +2923,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="3">
-        <v>23794</v>
+        <v>23793</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>43</v>
@@ -8390,7 +8391,7 @@
         <v>203</v>
       </c>
       <c r="B104" s="3">
-        <v>24249</v>
+        <v>24250</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>83</v>
@@ -9428,7 +9429,7 @@
         <v>241</v>
       </c>
       <c r="B120" s="3">
-        <v>23709</v>
+        <v>23710</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>111</v>
@@ -13651,6 +13652,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U184" xr:uid="{0DB88690-C7FE-4C2E-8D04-5F6FFB6B4287}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/RGGI_2_NYCA_2019.xlsx
+++ b/Data/RGGI_2_NYCA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081A2D1-3C5E-459C-A46F-1769552EE019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D423E3C7-93C5-4F6F-A105-7BAD310C4F97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46CA5E29-DD96-4F6B-BE5F-3EC339671D52}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="362">
   <si>
     <t>Zone</t>
   </si>
@@ -761,12 +761,6 @@
   </si>
   <si>
     <t>U00017</t>
-  </si>
-  <si>
-    <t>Barrett 07</t>
-  </si>
-  <si>
-    <t>U00018</t>
   </si>
   <si>
     <t>Barrett 08</t>
@@ -1289,7 +1283,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1317,7 +1311,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
@@ -1343,7 +1336,26 @@
     <cellStyle name="40% - Accent6" xfId="10" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1653,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1B45A8-B963-4791-BC96-9A415EE570BA}">
-  <dimension ref="A1:U184"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133:D142"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1678,7 @@
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -1685,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1694,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>358</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>360</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1712,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -1723,7 +1735,7 @@
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1745,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1764,7 +1776,7 @@
       <c r="E2">
         <v>50451</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1829,7 +1841,7 @@
       <c r="E3" s="10">
         <v>54041</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>11854</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1894,7 +1906,7 @@
       <c r="E4" s="10">
         <v>54041</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>11855</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1959,7 +1971,7 @@
       <c r="E5" s="10">
         <v>54041</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>11856</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -2024,7 +2036,7 @@
       <c r="E6">
         <v>54076</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2089,7 +2101,7 @@
       <c r="E7">
         <v>54131</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2154,7 +2166,7 @@
       <c r="E8">
         <v>10619</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2219,7 +2231,7 @@
       <c r="E9">
         <v>54593</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2284,7 +2296,7 @@
       <c r="E10">
         <v>50449</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2349,7 +2361,7 @@
       <c r="E11">
         <v>50450</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2414,7 +2426,7 @@
       <c r="E12" s="10">
         <v>54547</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -2468,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="3">
-        <v>23971</v>
+        <v>23970</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
@@ -2479,7 +2491,7 @@
       <c r="E13" s="10">
         <v>54547</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -2533,7 +2545,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>23972</v>
+        <v>23970</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>33</v>
@@ -2544,7 +2556,7 @@
       <c r="E14" s="10">
         <v>54547</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -2598,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="3">
-        <v>23973</v>
+        <v>23970</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -2609,7 +2621,7 @@
       <c r="E15" s="10">
         <v>54547</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2674,7 +2686,7 @@
       <c r="E16">
         <v>10621</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2739,7 +2751,7 @@
       <c r="E17" s="10">
         <v>50978</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -2793,7 +2805,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="3">
-        <v>24061</v>
+        <v>24060</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -2804,7 +2816,7 @@
       <c r="E18" s="10">
         <v>50978</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -2869,7 +2881,7 @@
       <c r="E19" s="10">
         <v>54574</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="32">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -2934,7 +2946,7 @@
       <c r="E20" s="10">
         <v>54574</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>2</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -2999,7 +3011,7 @@
       <c r="E21">
         <v>54592</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -3064,7 +3076,7 @@
       <c r="E22">
         <v>50744</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -3129,7 +3141,7 @@
       <c r="E23">
         <v>10620</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -3194,7 +3206,7 @@
       <c r="E24">
         <v>10617</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -3259,7 +3271,7 @@
       <c r="E25">
         <v>55405</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -3324,7 +3336,7 @@
       <c r="E26">
         <v>55405</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -3389,7 +3401,7 @@
       <c r="E27">
         <v>55405</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <v>3</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -3454,7 +3466,7 @@
       <c r="E28">
         <v>54034</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3519,7 +3531,7 @@
       <c r="E29" s="10">
         <v>10725</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -3573,7 +3585,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="3">
-        <v>23800</v>
+        <v>23799</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>54</v>
@@ -3584,7 +3596,7 @@
       <c r="E30" s="10">
         <v>10725</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -3649,7 +3661,7 @@
       <c r="E31">
         <v>10725</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -3714,7 +3726,7 @@
       <c r="E32">
         <v>50458</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -3779,7 +3791,7 @@
       <c r="E33">
         <v>10190</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -3844,7 +3856,7 @@
       <c r="E34" s="10">
         <v>2539</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="32">
         <v>10001</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -3909,7 +3921,7 @@
       <c r="E35" s="10">
         <v>2539</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="32">
         <v>10002</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -3974,7 +3986,7 @@
       <c r="E36" s="10">
         <v>2539</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <v>10003</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -4039,7 +4051,7 @@
       <c r="E37">
         <v>56259</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="31" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -4104,7 +4116,7 @@
       <c r="E38">
         <v>56259</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -4169,7 +4181,7 @@
       <c r="E39">
         <v>56940</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>1</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -4234,7 +4246,7 @@
       <c r="E40">
         <v>56940</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>2</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -4299,7 +4311,7 @@
       <c r="E41" s="10">
         <v>54914</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="32">
         <v>1</v>
       </c>
       <c r="G41" s="11" t="s">
@@ -4364,7 +4376,7 @@
       <c r="E42" s="10">
         <v>54914</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <v>2</v>
       </c>
       <c r="G42" s="11" t="s">
@@ -4429,7 +4441,7 @@
       <c r="E43">
         <v>54114</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -4495,7 +4507,7 @@
       <c r="E44">
         <v>54114</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -4561,7 +4573,7 @@
       <c r="E45">
         <v>2500</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -4626,7 +4638,7 @@
       <c r="E46">
         <v>2493</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -4691,7 +4703,7 @@
       <c r="E47">
         <v>2493</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -4756,7 +4768,7 @@
       <c r="E48">
         <v>56196</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="31" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -4822,7 +4834,7 @@
       <c r="E49">
         <v>56196</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="31" t="s">
         <v>99</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -4888,7 +4900,7 @@
       <c r="E50">
         <v>55375</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -4954,7 +4966,7 @@
       <c r="E51">
         <v>55375</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="31" t="s">
         <v>104</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -5020,7 +5032,7 @@
       <c r="E52">
         <v>55375</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>106</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -5086,7 +5098,7 @@
       <c r="E53">
         <v>55375</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="31" t="s">
         <v>108</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -5152,7 +5164,7 @@
       <c r="E54">
         <v>7314</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>1</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -5217,7 +5229,7 @@
       <c r="E55" s="10">
         <v>50292</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="32" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="11" t="s">
@@ -5271,7 +5283,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="3">
-        <v>23824</v>
+        <v>23823</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>111</v>
@@ -5282,7 +5294,7 @@
       <c r="E56" s="10">
         <v>50292</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="32" t="s">
         <v>88</v>
       </c>
       <c r="G56" s="11" t="s">
@@ -5347,7 +5359,7 @@
       <c r="E57">
         <v>56188</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -5412,7 +5424,7 @@
       <c r="E58">
         <v>50292</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -5477,7 +5489,7 @@
       <c r="E59">
         <v>56234</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="31">
         <v>1</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -5542,7 +5554,7 @@
       <c r="E60">
         <v>52056</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="31">
         <v>4</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -5607,7 +5619,7 @@
       <c r="E61">
         <v>2682</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <v>20</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -5672,7 +5684,7 @@
       <c r="E62">
         <v>2628</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>1</v>
       </c>
       <c r="G62" s="18" t="s">
@@ -5737,7 +5749,7 @@
       <c r="E63">
         <v>2632</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>1</v>
       </c>
       <c r="G63" s="18" t="s">
@@ -5802,7 +5814,7 @@
       <c r="E64">
         <v>7915</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="31" t="s">
         <v>131</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -5867,7 +5879,7 @@
       <c r="E65">
         <v>8053</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="31" t="s">
         <v>134</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -5932,7 +5944,7 @@
       <c r="E66">
         <v>7910</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="31">
         <v>2301</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -5997,7 +6009,7 @@
       <c r="E67">
         <v>7910</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="31">
         <v>2302</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -6062,7 +6074,7 @@
       <c r="E68">
         <v>7913</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -6127,7 +6139,7 @@
       <c r="E69">
         <v>7913</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="31" t="s">
         <v>142</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -6192,7 +6204,7 @@
       <c r="E70">
         <v>7914</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="31" t="s">
         <v>145</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -6257,7 +6269,7 @@
       <c r="E71">
         <v>7914</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="F71" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -6322,7 +6334,7 @@
       <c r="E72">
         <v>7909</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="31" t="s">
         <v>150</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -6387,7 +6399,7 @@
       <c r="E73">
         <v>7909</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="31" t="s">
         <v>152</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -6452,7 +6464,7 @@
       <c r="E74" s="10">
         <v>55243</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="32" t="s">
         <v>155</v>
       </c>
       <c r="G74" s="19" t="s">
@@ -6517,7 +6529,7 @@
       <c r="E75" s="10">
         <v>55243</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="32" t="s">
         <v>157</v>
       </c>
       <c r="G75" s="19" t="s">
@@ -6582,7 +6594,7 @@
       <c r="E76" s="10">
         <v>55243</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>159</v>
       </c>
       <c r="G76" s="19" t="s">
@@ -6647,7 +6659,7 @@
       <c r="E77" s="10">
         <v>55243</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>160</v>
       </c>
       <c r="G77" s="19" t="s">
@@ -6712,7 +6724,7 @@
       <c r="E78" s="10">
         <v>55243</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="32" t="s">
         <v>162</v>
       </c>
       <c r="G78" s="19" t="s">
@@ -6777,7 +6789,7 @@
       <c r="E79" s="10">
         <v>55243</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="F79" s="32" t="s">
         <v>163</v>
       </c>
       <c r="G79" s="19" t="s">
@@ -6842,7 +6854,7 @@
       <c r="E80" s="10">
         <v>55243</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>165</v>
       </c>
       <c r="G80" s="19" t="s">
@@ -6907,7 +6919,7 @@
       <c r="E81" s="10">
         <v>55243</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="32" t="s">
         <v>166</v>
       </c>
       <c r="G81" s="19" t="s">
@@ -6972,7 +6984,7 @@
       <c r="E82" s="10">
         <v>55243</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F82" s="32" t="s">
         <v>168</v>
       </c>
       <c r="G82" s="19" t="s">
@@ -7037,7 +7049,7 @@
       <c r="E83" s="10">
         <v>55243</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="32" t="s">
         <v>169</v>
       </c>
       <c r="G83" s="19" t="s">
@@ -7102,7 +7114,7 @@
       <c r="E84" s="10">
         <v>55243</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G84" s="19" t="s">
@@ -7167,7 +7179,7 @@
       <c r="E85" s="10">
         <v>55243</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F85" s="32" t="s">
         <v>172</v>
       </c>
       <c r="G85" s="19" t="s">
@@ -7232,7 +7244,7 @@
       <c r="E86" s="10">
         <v>55243</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>174</v>
       </c>
       <c r="G86" s="19" t="s">
@@ -7297,7 +7309,7 @@
       <c r="E87" s="10">
         <v>55243</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="32" t="s">
         <v>175</v>
       </c>
       <c r="G87" s="19" t="s">
@@ -7362,7 +7374,7 @@
       <c r="E88" s="10">
         <v>55243</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="32" t="s">
         <v>177</v>
       </c>
       <c r="G88" s="19" t="s">
@@ -7427,7 +7439,7 @@
       <c r="E89" s="10">
         <v>55243</v>
       </c>
-      <c r="F89" s="33" t="s">
+      <c r="F89" s="32" t="s">
         <v>178</v>
       </c>
       <c r="G89" s="19" t="s">
@@ -7492,7 +7504,7 @@
       <c r="E90" s="10">
         <v>55243</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="32" t="s">
         <v>180</v>
       </c>
       <c r="G90" s="19" t="s">
@@ -7557,7 +7569,7 @@
       <c r="E91" s="10">
         <v>55243</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="F91" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G91" s="19" t="s">
@@ -7622,7 +7634,7 @@
       <c r="E92" s="10">
         <v>55243</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="F92" s="32" t="s">
         <v>183</v>
       </c>
       <c r="G92" s="19" t="s">
@@ -7687,7 +7699,7 @@
       <c r="E93" s="10">
         <v>55243</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="32" t="s">
         <v>184</v>
       </c>
       <c r="G93" s="19" t="s">
@@ -7752,7 +7764,7 @@
       <c r="E94" s="10">
         <v>55243</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="32" t="s">
         <v>186</v>
       </c>
       <c r="G94" s="19" t="s">
@@ -7817,7 +7829,7 @@
       <c r="E95" s="10">
         <v>55243</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="F95" s="32" t="s">
         <v>187</v>
       </c>
       <c r="G95" s="19" t="s">
@@ -7882,7 +7894,7 @@
       <c r="E96" s="10">
         <v>55243</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="32" t="s">
         <v>189</v>
       </c>
       <c r="G96" s="19" t="s">
@@ -7947,7 +7959,7 @@
       <c r="E97" s="10">
         <v>55243</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="F97" s="32" t="s">
         <v>190</v>
       </c>
       <c r="G97" s="19" t="s">
@@ -8012,7 +8024,7 @@
       <c r="E98">
         <v>2500</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="31" t="s">
         <v>192</v>
       </c>
       <c r="G98" s="18" t="s">
@@ -8077,7 +8089,7 @@
       <c r="E99">
         <v>2500</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="31" t="s">
         <v>194</v>
       </c>
       <c r="G99" s="18" t="s">
@@ -8142,7 +8154,7 @@
       <c r="E100">
         <v>2500</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="31" t="s">
         <v>196</v>
       </c>
       <c r="G100" s="18" t="s">
@@ -8207,7 +8219,7 @@
       <c r="E101">
         <v>2500</v>
       </c>
-      <c r="F101" s="32" t="s">
+      <c r="F101" s="31" t="s">
         <v>198</v>
       </c>
       <c r="G101" s="18" t="s">
@@ -8272,7 +8284,7 @@
       <c r="E102">
         <v>2500</v>
       </c>
-      <c r="F102" s="32" t="s">
+      <c r="F102" s="31" t="s">
         <v>200</v>
       </c>
       <c r="G102" s="18" t="s">
@@ -8337,7 +8349,7 @@
       <c r="E103">
         <v>2500</v>
       </c>
-      <c r="F103" s="32" t="s">
+      <c r="F103" s="31" t="s">
         <v>202</v>
       </c>
       <c r="G103" s="18" t="s">
@@ -8402,7 +8414,7 @@
       <c r="E104" s="2">
         <v>2500</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="30" t="s">
         <v>204</v>
       </c>
       <c r="G104" s="22" t="s">
@@ -8465,7 +8477,7 @@
       <c r="E105">
         <v>2500</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="31" t="s">
         <v>206</v>
       </c>
       <c r="G105" s="18" t="s">
@@ -8530,7 +8542,7 @@
       <c r="E106" s="2">
         <v>7146</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -8595,7 +8607,7 @@
       <c r="E107" s="2">
         <v>7146</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="30" t="s">
         <v>212</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -8660,7 +8672,7 @@
       <c r="E108" s="2">
         <v>7146</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" s="30" t="s">
         <v>214</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -8725,7 +8737,7 @@
       <c r="E109">
         <v>2514</v>
       </c>
-      <c r="F109" s="32" t="s">
+      <c r="F109" s="31" t="s">
         <v>217</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -8790,7 +8802,7 @@
       <c r="E110">
         <v>2514</v>
       </c>
-      <c r="F110" s="32" t="s">
+      <c r="F110" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G110" s="4" t="s">
@@ -8855,7 +8867,7 @@
       <c r="E111">
         <v>2521</v>
       </c>
-      <c r="F111" s="32" t="s">
+      <c r="F111" s="31" t="s">
         <v>222</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -8920,7 +8932,7 @@
       <c r="E112">
         <v>55787</v>
       </c>
-      <c r="F112" s="32" t="s">
+      <c r="F112" s="31" t="s">
         <v>225</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -8985,7 +8997,7 @@
       <c r="E113">
         <v>55787</v>
       </c>
-      <c r="F113" s="32" t="s">
+      <c r="F113" s="31" t="s">
         <v>227</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -9050,7 +9062,7 @@
       <c r="E114">
         <v>2511</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="33" t="s">
         <v>230</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -9115,7 +9127,7 @@
       <c r="E115">
         <v>2511</v>
       </c>
-      <c r="F115" s="34" t="s">
+      <c r="F115" s="33" t="s">
         <v>232</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -9180,7 +9192,7 @@
       <c r="E116">
         <v>2511</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="33" t="s">
         <v>234</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -9245,7 +9257,7 @@
       <c r="E117">
         <v>2511</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="F117" s="33" t="s">
         <v>236</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -9310,7 +9322,7 @@
       <c r="E118">
         <v>2511</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="33" t="s">
         <v>238</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -9375,7 +9387,7 @@
       <c r="E119">
         <v>2511</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="33" t="s">
         <v>240</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -9429,24 +9441,24 @@
         <v>241</v>
       </c>
       <c r="B120" s="3">
-        <v>23710</v>
+        <v>23711</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>229</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <v>2511</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G120" s="25" t="s">
+      <c r="G120" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="H120" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I120">
@@ -9474,16 +9486,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Q120" s="8">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="R120" s="8">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="S120" s="9">
-        <v>17</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="T120" s="9">
-        <v>19.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="U120" s="14">
         <v>0</v>
@@ -9494,19 +9506,19 @@
         <v>243</v>
       </c>
       <c r="B121" s="3">
-        <v>23711</v>
+        <v>23764</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E121">
-        <v>2511</v>
-      </c>
-      <c r="F121" s="34" t="s">
-        <v>244</v>
+        <v>56032</v>
+      </c>
+      <c r="F121" s="31">
+        <v>1</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>123</v>
@@ -9515,40 +9527,40 @@
         <v>19</v>
       </c>
       <c r="I121">
-        <v>697</v>
+        <v>933.2</v>
       </c>
       <c r="J121">
-        <v>8798</v>
+        <v>41818.15</v>
       </c>
       <c r="K121">
-        <v>138748.20000000001</v>
+        <v>416554.79399999999</v>
       </c>
       <c r="L121">
-        <v>40.616900000000001</v>
+        <v>40.6447</v>
       </c>
       <c r="M121">
-        <v>-73.648600000000002</v>
+        <v>-73.568299999999994</v>
       </c>
       <c r="N121">
         <v>475</v>
       </c>
       <c r="O121" s="8">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="P121" s="9">
-        <v>4.5999999999999996</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="Q121" s="8">
-        <v>17.3</v>
+        <v>48.3</v>
       </c>
       <c r="R121" s="8">
-        <v>22.6</v>
+        <v>51.3</v>
       </c>
       <c r="S121" s="9">
-        <v>17.600000000000001</v>
+        <v>45.7</v>
       </c>
       <c r="T121" s="9">
-        <v>20.2</v>
+        <v>46.4</v>
       </c>
       <c r="U121" s="14">
         <v>0</v>
@@ -9559,7 +9571,7 @@
         <v>245</v>
       </c>
       <c r="B122" s="3">
-        <v>23764</v>
+        <v>23818</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>111</v>
@@ -9568,10 +9580,10 @@
         <v>246</v>
       </c>
       <c r="E122">
-        <v>56032</v>
-      </c>
-      <c r="F122" s="32">
-        <v>1</v>
+        <v>2679</v>
+      </c>
+      <c r="F122" s="31">
+        <v>5</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>123</v>
@@ -9580,13 +9592,13 @@
         <v>19</v>
       </c>
       <c r="I122">
-        <v>933.2</v>
+        <v>379.5</v>
       </c>
       <c r="J122">
-        <v>41818.15</v>
+        <v>13872.75</v>
       </c>
       <c r="K122">
-        <v>416554.79399999999</v>
+        <v>140612</v>
       </c>
       <c r="L122">
         <v>40.6447</v>
@@ -9595,25 +9607,25 @@
         <v>-73.568299999999994</v>
       </c>
       <c r="N122">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="O122" s="8">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="P122" s="9">
-        <v>36.700000000000003</v>
+        <v>43.3</v>
       </c>
       <c r="Q122" s="8">
-        <v>48.3</v>
+        <v>50.3</v>
       </c>
       <c r="R122" s="8">
-        <v>51.3</v>
+        <v>50.3</v>
       </c>
       <c r="S122" s="9">
-        <v>45.7</v>
+        <v>47.1</v>
       </c>
       <c r="T122" s="9">
-        <v>46.4</v>
+        <v>50.7</v>
       </c>
       <c r="U122" s="14">
         <v>0</v>
@@ -9624,7 +9636,7 @@
         <v>247</v>
       </c>
       <c r="B123" s="3">
-        <v>23818</v>
+        <v>24151</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>111</v>
@@ -9633,10 +9645,10 @@
         <v>248</v>
       </c>
       <c r="E123">
-        <v>2679</v>
-      </c>
-      <c r="F123" s="32">
-        <v>5</v>
+        <v>54149</v>
+      </c>
+      <c r="F123" s="31">
+        <v>1</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>123</v>
@@ -9645,40 +9657,40 @@
         <v>19</v>
       </c>
       <c r="I123">
-        <v>379.5</v>
+        <v>7972.95</v>
       </c>
       <c r="J123">
-        <v>13872.75</v>
+        <v>300526.82</v>
       </c>
       <c r="K123">
-        <v>140612</v>
+        <v>3318798.5559999999</v>
       </c>
       <c r="L123">
-        <v>40.6447</v>
+        <v>40.916800000000002</v>
       </c>
       <c r="M123">
-        <v>-73.568299999999994</v>
+        <v>-73.129199999999997</v>
       </c>
       <c r="N123">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="O123" s="8">
-        <v>60.5</v>
+        <v>47</v>
       </c>
       <c r="P123" s="9">
-        <v>43.3</v>
+        <v>83</v>
       </c>
       <c r="Q123" s="8">
-        <v>50.3</v>
+        <v>9.6</v>
       </c>
       <c r="R123" s="8">
-        <v>50.3</v>
+        <v>9.6</v>
       </c>
       <c r="S123" s="9">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="T123" s="9">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="U123" s="14">
         <v>0</v>
@@ -9689,19 +9701,19 @@
         <v>249</v>
       </c>
       <c r="B124" s="3">
-        <v>24151</v>
+        <v>24164</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D124" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124">
+        <v>7912</v>
+      </c>
+      <c r="F124" s="31" t="s">
         <v>250</v>
-      </c>
-      <c r="E124">
-        <v>54149</v>
-      </c>
-      <c r="F124" s="32">
-        <v>1</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>123</v>
@@ -9710,40 +9722,40 @@
         <v>19</v>
       </c>
       <c r="I124">
-        <v>7972.95</v>
+        <v>1262.95</v>
       </c>
       <c r="J124">
-        <v>300526.82</v>
+        <v>55602.77</v>
       </c>
       <c r="K124">
-        <v>3318798.5559999999</v>
+        <v>541649.26300000004</v>
       </c>
       <c r="L124">
-        <v>40.916800000000002</v>
+        <v>40.786999999999999</v>
       </c>
       <c r="M124">
-        <v>-73.129199999999997</v>
+        <v>-73.293300000000002</v>
       </c>
       <c r="N124">
-        <v>455</v>
+        <v>270</v>
       </c>
       <c r="O124" s="8">
         <v>47</v>
       </c>
       <c r="P124" s="9">
-        <v>83</v>
+        <v>60.7</v>
       </c>
       <c r="Q124" s="8">
-        <v>9.6</v>
+        <v>47.1</v>
       </c>
       <c r="R124" s="8">
-        <v>9.6</v>
+        <v>47.1</v>
       </c>
       <c r="S124" s="9">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="T124" s="9">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="U124" s="14">
         <v>0</v>
@@ -9754,19 +9766,19 @@
         <v>251</v>
       </c>
       <c r="B125" s="3">
-        <v>24164</v>
+        <v>24210</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E125">
-        <v>7912</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>252</v>
+        <v>2517</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>123</v>
@@ -9775,40 +9787,40 @@
         <v>19</v>
       </c>
       <c r="I125">
-        <v>1262.95</v>
+        <v>620.75</v>
       </c>
       <c r="J125">
-        <v>55602.77</v>
+        <v>24021.25</v>
       </c>
       <c r="K125">
-        <v>541649.26300000004</v>
+        <v>244138.42499999999</v>
       </c>
       <c r="L125">
-        <v>40.786999999999999</v>
+        <v>40.950299999999999</v>
       </c>
       <c r="M125">
-        <v>-73.293300000000002</v>
+        <v>-73.078599999999994</v>
       </c>
       <c r="N125">
-        <v>270</v>
+        <v>487</v>
       </c>
       <c r="O125" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P125" s="9">
-        <v>60.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q125" s="8">
-        <v>47.1</v>
+        <v>44</v>
       </c>
       <c r="R125" s="8">
-        <v>47.1</v>
+        <v>52</v>
       </c>
       <c r="S125" s="9">
-        <v>43.8</v>
+        <v>41.9</v>
       </c>
       <c r="T125" s="9">
-        <v>46.3</v>
+        <v>46.6</v>
       </c>
       <c r="U125" s="14">
         <v>0</v>
@@ -9816,21 +9828,21 @@
     </row>
     <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B126" s="3">
-        <v>24210</v>
+        <v>24211</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D126" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E126">
         <v>2517</v>
       </c>
-      <c r="F126" s="32" t="s">
+      <c r="F126" s="31" t="s">
         <v>255</v>
       </c>
       <c r="G126" s="4" t="s">
@@ -9840,13 +9852,13 @@
         <v>19</v>
       </c>
       <c r="I126">
-        <v>620.75</v>
+        <v>632.75</v>
       </c>
       <c r="J126">
-        <v>24021.25</v>
+        <v>24544.75</v>
       </c>
       <c r="K126">
-        <v>244138.42499999999</v>
+        <v>232429.4</v>
       </c>
       <c r="L126">
         <v>40.950299999999999</v>
@@ -9855,25 +9867,25 @@
         <v>-73.078599999999994</v>
       </c>
       <c r="N126">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="O126" s="8">
         <v>53</v>
       </c>
       <c r="P126" s="9">
-        <v>23.9</v>
+        <v>30.9</v>
       </c>
       <c r="Q126" s="8">
-        <v>44</v>
+        <v>43.1</v>
       </c>
       <c r="R126" s="8">
-        <v>52</v>
+        <v>50.9</v>
       </c>
       <c r="S126" s="9">
-        <v>41.9</v>
+        <v>39.1</v>
       </c>
       <c r="T126" s="9">
-        <v>46.6</v>
+        <v>45.4</v>
       </c>
       <c r="U126" s="14">
         <v>0</v>
@@ -9884,19 +9896,19 @@
         <v>256</v>
       </c>
       <c r="B127" s="3">
-        <v>24211</v>
+        <v>24216</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D127" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E127">
-        <v>2517</v>
-      </c>
-      <c r="F127" s="32" t="s">
-        <v>257</v>
+        <v>55786</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>123</v>
@@ -9905,40 +9917,40 @@
         <v>19</v>
       </c>
       <c r="I127">
-        <v>632.75</v>
+        <v>809.97</v>
       </c>
       <c r="J127">
-        <v>24544.75</v>
+        <v>33333.18</v>
       </c>
       <c r="K127">
-        <v>232429.4</v>
+        <v>328953.19099999999</v>
       </c>
       <c r="L127">
-        <v>40.950299999999999</v>
+        <v>40.786099999999998</v>
       </c>
       <c r="M127">
-        <v>-73.078599999999994</v>
+        <v>-73.293099999999995</v>
       </c>
       <c r="N127">
-        <v>545</v>
+        <v>270</v>
       </c>
       <c r="O127" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P127" s="9">
-        <v>30.9</v>
+        <v>54.7</v>
       </c>
       <c r="Q127" s="8">
-        <v>43.1</v>
+        <v>45.6</v>
       </c>
       <c r="R127" s="8">
-        <v>50.9</v>
+        <v>45.6</v>
       </c>
       <c r="S127" s="9">
-        <v>39.1</v>
+        <v>43</v>
       </c>
       <c r="T127" s="9">
-        <v>45.4</v>
+        <v>46.1</v>
       </c>
       <c r="U127" s="14">
         <v>0</v>
@@ -9949,19 +9961,19 @@
         <v>258</v>
       </c>
       <c r="B128" s="3">
-        <v>24216</v>
+        <v>24217</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E128">
         <v>55786</v>
       </c>
-      <c r="F128" s="32" t="s">
-        <v>225</v>
+      <c r="F128" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>123</v>
@@ -9970,13 +9982,13 @@
         <v>19</v>
       </c>
       <c r="I128">
-        <v>809.97</v>
+        <v>711.83</v>
       </c>
       <c r="J128">
-        <v>33333.18</v>
+        <v>29828.41</v>
       </c>
       <c r="K128">
-        <v>328953.19099999999</v>
+        <v>307624.49</v>
       </c>
       <c r="L128">
         <v>40.786099999999998</v>
@@ -9991,19 +10003,19 @@
         <v>50</v>
       </c>
       <c r="P128" s="9">
-        <v>54.7</v>
+        <v>53.7</v>
       </c>
       <c r="Q128" s="8">
-        <v>45.6</v>
+        <v>46.2</v>
       </c>
       <c r="R128" s="8">
-        <v>45.6</v>
+        <v>46.2</v>
       </c>
       <c r="S128" s="9">
-        <v>43</v>
+        <v>42.2</v>
       </c>
       <c r="T128" s="9">
-        <v>46.1</v>
+        <v>46.6</v>
       </c>
       <c r="U128" s="14">
         <v>0</v>
@@ -10011,22 +10023,22 @@
     </row>
     <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" s="3">
-        <v>24217</v>
+        <v>24219</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E129">
-        <v>55786</v>
-      </c>
-      <c r="F129" s="32" t="s">
-        <v>227</v>
+        <v>7869</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>261</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>123</v>
@@ -10035,37 +10047,37 @@
         <v>19</v>
       </c>
       <c r="I129">
-        <v>711.83</v>
+        <v>1039.75</v>
       </c>
       <c r="J129">
-        <v>29828.41</v>
+        <v>41861.25</v>
       </c>
       <c r="K129">
-        <v>307624.49</v>
+        <v>409541.6</v>
       </c>
       <c r="L129">
-        <v>40.786099999999998</v>
+        <v>40.827500000000001</v>
       </c>
       <c r="M129">
-        <v>-73.293099999999995</v>
+        <v>-73.647800000000004</v>
       </c>
       <c r="N129">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="O129" s="8">
+        <v>53</v>
+      </c>
+      <c r="P129" s="9">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>42.3</v>
+      </c>
+      <c r="R129" s="8">
         <v>50</v>
       </c>
-      <c r="P129" s="9">
-        <v>53.7</v>
-      </c>
-      <c r="Q129" s="8">
-        <v>46.2</v>
-      </c>
-      <c r="R129" s="8">
-        <v>46.2</v>
-      </c>
       <c r="S129" s="9">
-        <v>42.2</v>
+        <v>42.6</v>
       </c>
       <c r="T129" s="9">
         <v>46.6</v>
@@ -10076,21 +10088,21 @@
     </row>
     <row r="130" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B130" s="3">
-        <v>24219</v>
+        <v>24220</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D130" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E130">
         <v>7869</v>
       </c>
-      <c r="F130" s="32" t="s">
+      <c r="F130" s="31" t="s">
         <v>263</v>
       </c>
       <c r="G130" s="4" t="s">
@@ -10100,13 +10112,13 @@
         <v>19</v>
       </c>
       <c r="I130">
-        <v>1039.75</v>
+        <v>1088.75</v>
       </c>
       <c r="J130">
-        <v>41861.25</v>
+        <v>43546.75</v>
       </c>
       <c r="K130">
-        <v>409541.6</v>
+        <v>429373.05</v>
       </c>
       <c r="L130">
         <v>40.827500000000001</v>
@@ -10115,25 +10127,25 @@
         <v>-73.647800000000004</v>
       </c>
       <c r="N130">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="O130" s="8">
         <v>53</v>
       </c>
       <c r="P130" s="9">
-        <v>35.700000000000003</v>
+        <v>50.7</v>
       </c>
       <c r="Q130" s="8">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="R130" s="8">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="S130" s="9">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="T130" s="9">
-        <v>46.6</v>
+        <v>44.4</v>
       </c>
       <c r="U130" s="14">
         <v>0</v>
@@ -10144,18 +10156,18 @@
         <v>264</v>
       </c>
       <c r="B131" s="3">
-        <v>24220</v>
+        <v>323586</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="E131">
-        <v>7869</v>
-      </c>
-      <c r="F131" s="32" t="s">
+        <v>50292</v>
+      </c>
+      <c r="F131" s="31" t="s">
         <v>265</v>
       </c>
       <c r="G131" s="4" t="s">
@@ -10165,40 +10177,40 @@
         <v>19</v>
       </c>
       <c r="I131">
-        <v>1088.75</v>
+        <v>1053.6500000000001</v>
       </c>
       <c r="J131">
-        <v>43546.75</v>
+        <v>47016.800000000003</v>
       </c>
       <c r="K131">
-        <v>429373.05</v>
+        <v>468317.79599999997</v>
       </c>
       <c r="L131">
-        <v>40.827500000000001</v>
+        <v>40.746899999999997</v>
       </c>
       <c r="M131">
-        <v>-73.647800000000004</v>
+        <v>-73.499399999999994</v>
       </c>
       <c r="N131">
-        <v>517</v>
+        <v>270</v>
       </c>
       <c r="O131" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P131" s="9">
-        <v>50.7</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="Q131" s="8">
-        <v>42</v>
+        <v>48.2</v>
       </c>
       <c r="R131" s="8">
-        <v>49.6</v>
+        <v>51.2</v>
       </c>
       <c r="S131" s="9">
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="T131" s="9">
-        <v>44.4</v>
+        <v>47.6</v>
       </c>
       <c r="U131" s="14">
         <v>0</v>
@@ -10209,61 +10221,61 @@
         <v>266</v>
       </c>
       <c r="B132" s="3">
-        <v>323586</v>
+        <v>23690</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D132" t="s">
-        <v>113</v>
+      <c r="D132" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E132">
-        <v>50292</v>
-      </c>
-      <c r="F132" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>19</v>
+        <v>8007</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I132">
-        <v>1053.6500000000001</v>
+        <v>54</v>
       </c>
       <c r="J132">
-        <v>47016.800000000003</v>
+        <v>428</v>
       </c>
       <c r="K132">
-        <v>468317.79599999997</v>
+        <v>7474.1</v>
       </c>
       <c r="L132">
-        <v>40.746899999999997</v>
+        <v>40.815300000000001</v>
       </c>
       <c r="M132">
-        <v>-73.499399999999994</v>
+        <v>-73.066400000000002</v>
       </c>
       <c r="N132">
-        <v>270</v>
+        <v>662</v>
       </c>
       <c r="O132" s="8">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="P132" s="9">
-        <v>70.400000000000006</v>
+        <v>2</v>
       </c>
       <c r="Q132" s="8">
-        <v>48.2</v>
+        <v>56.7</v>
       </c>
       <c r="R132" s="8">
-        <v>51.2</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="S132" s="9">
-        <v>45</v>
+        <v>55.5</v>
       </c>
       <c r="T132" s="9">
-        <v>47.6</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="U132" s="14">
         <v>0</v>
@@ -10271,21 +10283,21 @@
     </row>
     <row r="133" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B133" s="3">
-        <v>23690</v>
+        <v>23691</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E133">
         <v>8007</v>
       </c>
-      <c r="F133" s="32" t="s">
+      <c r="F133" s="31" t="s">
         <v>270</v>
       </c>
       <c r="G133" s="18" t="s">
@@ -10295,13 +10307,13 @@
         <v>210</v>
       </c>
       <c r="I133">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J133">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K133">
-        <v>7474.1</v>
+        <v>7405</v>
       </c>
       <c r="L133">
         <v>40.815300000000001</v>
@@ -10316,19 +10328,19 @@
         <v>56.7</v>
       </c>
       <c r="P133" s="9">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Q133" s="8">
-        <v>56.7</v>
+        <v>55.3</v>
       </c>
       <c r="R133" s="8">
-        <v>72.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="S133" s="9">
-        <v>55.5</v>
+        <v>54.3</v>
       </c>
       <c r="T133" s="9">
-        <v>65.099999999999994</v>
+        <v>63.1</v>
       </c>
       <c r="U133" s="14">
         <v>0</v>
@@ -10339,18 +10351,18 @@
         <v>271</v>
       </c>
       <c r="B134" s="3">
-        <v>23691</v>
+        <v>23692</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E134">
         <v>8007</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="31" t="s">
         <v>272</v>
       </c>
       <c r="G134" s="18" t="s">
@@ -10360,13 +10372,13 @@
         <v>210</v>
       </c>
       <c r="I134">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J134">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="K134">
-        <v>7405</v>
+        <v>3968.8</v>
       </c>
       <c r="L134">
         <v>40.815300000000001</v>
@@ -10375,25 +10387,25 @@
         <v>-73.066400000000002</v>
       </c>
       <c r="N134">
-        <v>662</v>
+        <v>416</v>
       </c>
       <c r="O134" s="8">
         <v>56.7</v>
       </c>
       <c r="P134" s="9">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="Q134" s="8">
-        <v>55.3</v>
+        <v>52.1</v>
       </c>
       <c r="R134" s="8">
-        <v>70.3</v>
+        <v>66.3</v>
       </c>
       <c r="S134" s="9">
-        <v>54.3</v>
+        <v>52.6</v>
       </c>
       <c r="T134" s="9">
-        <v>63.1</v>
+        <v>61.7</v>
       </c>
       <c r="U134" s="14">
         <v>0</v>
@@ -10404,18 +10416,18 @@
         <v>273</v>
       </c>
       <c r="B135" s="3">
-        <v>23692</v>
+        <v>23693</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E135">
         <v>8007</v>
       </c>
-      <c r="F135" s="32" t="s">
+      <c r="F135" s="31" t="s">
         <v>274</v>
       </c>
       <c r="G135" s="18" t="s">
@@ -10446,19 +10458,19 @@
         <v>56.7</v>
       </c>
       <c r="P135" s="9">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q135" s="8">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="R135" s="8">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="S135" s="9">
-        <v>52.6</v>
+        <v>51.2</v>
       </c>
       <c r="T135" s="9">
-        <v>61.7</v>
+        <v>63.8</v>
       </c>
       <c r="U135" s="14">
         <v>0</v>
@@ -10469,18 +10481,18 @@
         <v>275</v>
       </c>
       <c r="B136" s="3">
-        <v>23693</v>
+        <v>23694</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E136">
         <v>8007</v>
       </c>
-      <c r="F136" s="32" t="s">
+      <c r="F136" s="31" t="s">
         <v>276</v>
       </c>
       <c r="G136" s="18" t="s">
@@ -10490,13 +10502,13 @@
         <v>210</v>
       </c>
       <c r="I136">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="J136">
-        <v>230</v>
+        <v>534</v>
       </c>
       <c r="K136">
-        <v>3968.8</v>
+        <v>9332.7000000000007</v>
       </c>
       <c r="L136">
         <v>40.815300000000001</v>
@@ -10511,19 +10523,19 @@
         <v>56.7</v>
       </c>
       <c r="P136" s="9">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q136" s="8">
-        <v>52.7</v>
+        <v>55.3</v>
       </c>
       <c r="R136" s="8">
-        <v>67</v>
+        <v>70.3</v>
       </c>
       <c r="S136" s="9">
-        <v>51.2</v>
+        <v>53.8</v>
       </c>
       <c r="T136" s="9">
-        <v>63.8</v>
+        <v>63.3</v>
       </c>
       <c r="U136" s="14">
         <v>0</v>
@@ -10534,18 +10546,18 @@
         <v>277</v>
       </c>
       <c r="B137" s="3">
-        <v>23694</v>
+        <v>23695</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E137">
         <v>8007</v>
       </c>
-      <c r="F137" s="32" t="s">
+      <c r="F137" s="31" t="s">
         <v>278</v>
       </c>
       <c r="G137" s="18" t="s">
@@ -10576,19 +10588,19 @@
         <v>56.7</v>
       </c>
       <c r="P137" s="9">
-        <v>1.8</v>
+        <v>12.6</v>
       </c>
       <c r="Q137" s="8">
-        <v>55.3</v>
+        <v>53</v>
       </c>
       <c r="R137" s="8">
-        <v>70.3</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="S137" s="9">
-        <v>53.8</v>
+        <v>51.9</v>
       </c>
       <c r="T137" s="9">
-        <v>63.3</v>
+        <v>61.6</v>
       </c>
       <c r="U137" s="14">
         <v>0</v>
@@ -10599,18 +10611,18 @@
         <v>279</v>
       </c>
       <c r="B138" s="3">
-        <v>23695</v>
+        <v>23696</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E138">
         <v>8007</v>
       </c>
-      <c r="F138" s="32" t="s">
+      <c r="F138" s="31" t="s">
         <v>280</v>
       </c>
       <c r="G138" s="18" t="s">
@@ -10620,13 +10632,13 @@
         <v>210</v>
       </c>
       <c r="I138">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J138">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="K138">
-        <v>9332.7000000000007</v>
+        <v>10304</v>
       </c>
       <c r="L138">
         <v>40.815300000000001</v>
@@ -10641,19 +10653,19 @@
         <v>56.7</v>
       </c>
       <c r="P138" s="9">
-        <v>12.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q138" s="8">
-        <v>53</v>
+        <v>55.1</v>
       </c>
       <c r="R138" s="8">
-        <v>67.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="S138" s="9">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="T138" s="9">
-        <v>61.6</v>
+        <v>63.6</v>
       </c>
       <c r="U138" s="14">
         <v>0</v>
@@ -10664,18 +10676,18 @@
         <v>281</v>
       </c>
       <c r="B139" s="3">
-        <v>23696</v>
+        <v>23697</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E139">
         <v>8007</v>
       </c>
-      <c r="F139" s="32" t="s">
+      <c r="F139" s="31" t="s">
         <v>282</v>
       </c>
       <c r="G139" s="18" t="s">
@@ -10688,10 +10700,10 @@
         <v>85</v>
       </c>
       <c r="J139">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K139">
-        <v>10304</v>
+        <v>10286.200000000001</v>
       </c>
       <c r="L139">
         <v>40.815300000000001</v>
@@ -10706,19 +10718,19 @@
         <v>56.7</v>
       </c>
       <c r="P139" s="9">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="Q139" s="8">
-        <v>55.1</v>
+        <v>57.4</v>
       </c>
       <c r="R139" s="8">
-        <v>70.099999999999994</v>
+        <v>73</v>
       </c>
       <c r="S139" s="9">
-        <v>52.1</v>
+        <v>53</v>
       </c>
       <c r="T139" s="9">
-        <v>63.6</v>
+        <v>64</v>
       </c>
       <c r="U139" s="14">
         <v>0</v>
@@ -10729,18 +10741,18 @@
         <v>283</v>
       </c>
       <c r="B140" s="3">
-        <v>23697</v>
+        <v>23698</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E140">
         <v>8007</v>
       </c>
-      <c r="F140" s="32" t="s">
+      <c r="F140" s="31" t="s">
         <v>284</v>
       </c>
       <c r="G140" s="18" t="s">
@@ -10750,13 +10762,13 @@
         <v>210</v>
       </c>
       <c r="I140">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J140">
-        <v>576</v>
+        <v>393</v>
       </c>
       <c r="K140">
-        <v>10286.200000000001</v>
+        <v>6851.6</v>
       </c>
       <c r="L140">
         <v>40.815300000000001</v>
@@ -10771,19 +10783,19 @@
         <v>56.7</v>
       </c>
       <c r="P140" s="9">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="Q140" s="8">
-        <v>57.4</v>
+        <v>57.5</v>
       </c>
       <c r="R140" s="8">
-        <v>73</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="S140" s="9">
         <v>53</v>
       </c>
       <c r="T140" s="9">
-        <v>64</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="U140" s="14">
         <v>0</v>
@@ -10794,18 +10806,18 @@
         <v>285</v>
       </c>
       <c r="B141" s="3">
-        <v>23698</v>
+        <v>23699</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E141">
         <v>8007</v>
       </c>
-      <c r="F141" s="32" t="s">
+      <c r="F141" s="31" t="s">
         <v>286</v>
       </c>
       <c r="G141" s="18" t="s">
@@ -10836,19 +10848,19 @@
         <v>56.7</v>
       </c>
       <c r="P141" s="9">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="Q141" s="8">
-        <v>57.5</v>
+        <v>55.1</v>
       </c>
       <c r="R141" s="8">
-        <v>73.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="S141" s="9">
-        <v>53</v>
+        <v>53.8</v>
       </c>
       <c r="T141" s="9">
-        <v>68.099999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="U141" s="14">
         <v>0</v>
@@ -10859,19 +10871,19 @@
         <v>287</v>
       </c>
       <c r="B142" s="3">
-        <v>23699</v>
+        <v>23814</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>269</v>
+      <c r="D142" t="s">
+        <v>288</v>
       </c>
       <c r="E142">
-        <v>8007</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>288</v>
+        <v>55969</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="G142" s="18" t="s">
         <v>126</v>
@@ -10880,40 +10892,40 @@
         <v>210</v>
       </c>
       <c r="I142">
-        <v>60</v>
+        <v>642.33000000000004</v>
       </c>
       <c r="J142">
-        <v>393</v>
+        <v>31760.59</v>
       </c>
       <c r="K142">
-        <v>6851.6</v>
+        <v>313598.48499999999</v>
       </c>
       <c r="L142">
-        <v>40.815300000000001</v>
+        <v>41.105600000000003</v>
       </c>
       <c r="M142">
-        <v>-73.066400000000002</v>
+        <v>-72.3767</v>
       </c>
       <c r="N142">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="O142" s="8">
-        <v>56.7</v>
+        <v>54</v>
       </c>
       <c r="P142" s="9">
-        <v>7.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q142" s="8">
-        <v>55.1</v>
+        <v>51.9</v>
       </c>
       <c r="R142" s="8">
-        <v>70.099999999999994</v>
+        <v>52.4</v>
       </c>
       <c r="S142" s="9">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="T142" s="9">
-        <v>65.099999999999994</v>
+        <v>56.1</v>
       </c>
       <c r="U142" s="14">
         <v>0</v>
@@ -10921,64 +10933,64 @@
     </row>
     <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B143" s="3">
-        <v>23814</v>
+        <v>23815</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E143">
-        <v>55969</v>
-      </c>
-      <c r="F143" s="32" t="s">
-        <v>291</v>
+        <v>55699</v>
+      </c>
+      <c r="F143" s="31">
+        <v>2</v>
       </c>
       <c r="G143" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H143" s="6" t="s">
-        <v>210</v>
+      <c r="H143" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="I143">
-        <v>642.33000000000004</v>
+        <v>166.99</v>
       </c>
       <c r="J143">
-        <v>31760.59</v>
+        <v>8267.41</v>
       </c>
       <c r="K143">
-        <v>313598.48499999999</v>
+        <v>89162.667000000001</v>
       </c>
       <c r="L143">
-        <v>41.105600000000003</v>
+        <v>40.610599999999998</v>
       </c>
       <c r="M143">
-        <v>-72.3767</v>
+        <v>-73.761399999999995</v>
       </c>
       <c r="N143">
-        <v>625</v>
+        <v>560</v>
       </c>
       <c r="O143" s="8">
-        <v>54</v>
+        <v>60.5</v>
       </c>
       <c r="P143" s="9">
-        <v>24.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q143" s="8">
-        <v>51.9</v>
+        <v>55.4</v>
       </c>
       <c r="R143" s="8">
-        <v>52.4</v>
+        <v>75.7</v>
       </c>
       <c r="S143" s="9">
-        <v>53.4</v>
+        <v>54.4</v>
       </c>
       <c r="T143" s="9">
-        <v>56.1</v>
+        <v>54.4</v>
       </c>
       <c r="U143" s="14">
         <v>0</v>
@@ -10989,34 +11001,34 @@
         <v>292</v>
       </c>
       <c r="B144" s="3">
-        <v>23815</v>
+        <v>24212</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E144">
         <v>55699</v>
       </c>
-      <c r="F144" s="32">
-        <v>2</v>
+      <c r="F144" s="31">
+        <v>1</v>
       </c>
       <c r="G144" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H144" s="24" t="s">
-        <v>156</v>
+      <c r="H144" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I144">
-        <v>166.99</v>
+        <v>2308.71</v>
       </c>
       <c r="J144">
-        <v>8267.41</v>
+        <v>126793.7</v>
       </c>
       <c r="K144">
-        <v>89162.667000000001</v>
+        <v>1364364.19</v>
       </c>
       <c r="L144">
         <v>40.610599999999998</v>
@@ -11025,25 +11037,25 @@
         <v>-73.761399999999995</v>
       </c>
       <c r="N144">
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="O144" s="8">
         <v>60.5</v>
       </c>
       <c r="P144" s="9">
-        <v>9.5</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="Q144" s="8">
-        <v>55.4</v>
+        <v>53.5</v>
       </c>
       <c r="R144" s="8">
-        <v>75.7</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="S144" s="9">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="T144" s="9">
-        <v>54.4</v>
+        <v>58.6</v>
       </c>
       <c r="U144" s="14">
         <v>0</v>
@@ -11051,64 +11063,64 @@
     </row>
     <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="3">
+        <v>23543</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
         <v>294</v>
       </c>
-      <c r="B145" s="3">
-        <v>24212</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D145" t="s">
-        <v>293</v>
-      </c>
       <c r="E145">
-        <v>55699</v>
-      </c>
-      <c r="F145" s="32">
+        <v>6082</v>
+      </c>
+      <c r="F145" s="31">
         <v>1</v>
       </c>
-      <c r="G145" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>19</v>
+      <c r="G145" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H145" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="I145">
-        <v>2308.71</v>
+        <v>1137.25</v>
       </c>
       <c r="J145">
-        <v>126793.7</v>
+        <v>376367.67</v>
       </c>
       <c r="K145">
-        <v>1364364.19</v>
+        <v>3548075.1349999998</v>
       </c>
       <c r="L145">
-        <v>40.610599999999998</v>
+        <v>43.356099999999998</v>
       </c>
       <c r="M145">
-        <v>-73.761399999999995</v>
+        <v>-78.603899999999996</v>
       </c>
       <c r="N145">
-        <v>650</v>
+        <v>6280</v>
       </c>
       <c r="O145" s="8">
-        <v>60.5</v>
+        <v>655.1</v>
       </c>
       <c r="P145" s="9">
-        <v>140.80000000000001</v>
+        <v>593</v>
       </c>
       <c r="Q145" s="8">
-        <v>53.5</v>
+        <v>686.5</v>
       </c>
       <c r="R145" s="8">
-        <v>73.099999999999994</v>
+        <v>686.5</v>
       </c>
       <c r="S145" s="9">
-        <v>55.1</v>
+        <v>685.9</v>
       </c>
       <c r="T145" s="9">
-        <v>58.6</v>
+        <v>692.5</v>
       </c>
       <c r="U145" s="14">
         <v>0</v>
@@ -11116,64 +11128,65 @@
     </row>
     <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B146" s="3">
-        <v>23543</v>
+        <v>24010</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E146">
-        <v>6082</v>
-      </c>
-      <c r="F146" s="32">
-        <v>1</v>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H146" s="28" t="s">
-        <v>298</v>
+        <v>50472</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H146" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="I146">
-        <v>1137.25</v>
+        <v>2224</v>
       </c>
       <c r="J146">
-        <v>376367.67</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>3548075.1349999998</v>
+        <v>364659.17499999999</v>
       </c>
       <c r="L146">
-        <v>43.356099999999998</v>
+        <v>43.0839</v>
       </c>
       <c r="M146">
-        <v>-78.603899999999996</v>
+        <v>-79.005600000000001</v>
       </c>
       <c r="N146">
-        <v>6280</v>
+        <v>440</v>
       </c>
       <c r="O146" s="8">
-        <v>655.1</v>
-      </c>
-      <c r="P146" s="9">
-        <v>593</v>
+        <v>25</v>
+      </c>
+      <c r="P146" s="17">
+        <f>214.4/2</f>
+        <v>107.2</v>
       </c>
       <c r="Q146" s="8">
-        <v>686.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="R146" s="8">
-        <v>686.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="S146" s="9">
-        <v>685.9</v>
+        <v>15.6</v>
       </c>
       <c r="T146" s="9">
-        <v>692.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="U146" s="14">
         <v>0</v>
@@ -11181,7 +11194,7 @@
     </row>
     <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B147" s="3">
         <v>24010</v>
@@ -11190,28 +11203,28 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E147">
         <v>50472</v>
       </c>
-      <c r="F147" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H147" s="27" t="s">
+      <c r="F147" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="I147">
-        <v>2224</v>
+      <c r="G147" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H147" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>364659.17499999999</v>
+        <v>0</v>
       </c>
       <c r="L147">
         <v>43.0839</v>
@@ -11250,62 +11263,61 @@
         <v>303</v>
       </c>
       <c r="B148" s="3">
-        <v>24010</v>
+        <v>23584</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E148">
-        <v>50472</v>
-      </c>
-      <c r="F148" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="G148" s="26" t="s">
-        <v>297</v>
+        <v>2535</v>
+      </c>
+      <c r="F148" s="31">
+        <v>1</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="I148" s="2">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="I148">
+        <v>1433.48</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>95767.61</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1052001.449</v>
       </c>
       <c r="L148">
-        <v>43.0839</v>
+        <v>42.602800000000002</v>
       </c>
       <c r="M148">
-        <v>-79.005600000000001</v>
+        <v>-76.633600000000001</v>
       </c>
       <c r="N148">
-        <v>440</v>
+        <v>1980</v>
       </c>
       <c r="O148" s="8">
-        <v>25</v>
-      </c>
-      <c r="P148" s="17">
-        <f>214.4/2</f>
-        <v>107.2</v>
+        <v>155.30000000000001</v>
+      </c>
+      <c r="P148" s="9">
+        <v>81.599999999999994</v>
       </c>
       <c r="Q148" s="8">
-        <v>19.600000000000001</v>
+        <v>154.1</v>
       </c>
       <c r="R148" s="8">
-        <v>19.600000000000001</v>
+        <v>154.1</v>
       </c>
       <c r="S148" s="9">
-        <v>15.6</v>
+        <v>151</v>
       </c>
       <c r="T148" s="9">
-        <v>16.100000000000001</v>
+        <v>151</v>
       </c>
       <c r="U148" s="14">
         <v>0</v>
@@ -11316,34 +11328,34 @@
         <v>305</v>
       </c>
       <c r="B149" s="3">
-        <v>23584</v>
+        <v>23585</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D149" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E149">
         <v>2535</v>
       </c>
-      <c r="F149" s="32">
-        <v>1</v>
-      </c>
-      <c r="G149" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H149" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="I149">
-        <v>1433.48</v>
+      <c r="F149" s="31">
+        <v>2</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H149" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>95767.61</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>1052001.449</v>
+        <v>0</v>
       </c>
       <c r="L149">
         <v>42.602800000000002</v>
@@ -11352,25 +11364,25 @@
         <v>-76.633600000000001</v>
       </c>
       <c r="N149">
-        <v>1980</v>
+        <v>2072</v>
       </c>
       <c r="O149" s="8">
-        <v>155.30000000000001</v>
+        <v>167.2</v>
       </c>
       <c r="P149" s="9">
-        <v>81.599999999999994</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="Q149" s="8">
-        <v>154.1</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="R149" s="8">
-        <v>154.1</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="S149" s="9">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="T149" s="9">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="U149" s="14">
         <v>0</v>
@@ -11378,64 +11390,64 @@
     </row>
     <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B150" s="3">
-        <v>23585</v>
+        <v>23606</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E150">
-        <v>2535</v>
-      </c>
-      <c r="F150" s="32">
-        <v>2</v>
-      </c>
-      <c r="G150" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H150" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="I150" s="2">
-        <v>0</v>
+        <v>2594</v>
+      </c>
+      <c r="F150" s="31">
+        <v>5</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I150">
+        <v>95.31</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>15393.62</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>176872.42800000001</v>
       </c>
       <c r="L150">
-        <v>42.602800000000002</v>
+        <v>43.46</v>
       </c>
       <c r="M150">
-        <v>-76.633600000000001</v>
+        <v>-76.53</v>
       </c>
       <c r="N150">
-        <v>2072</v>
+        <v>9422</v>
       </c>
       <c r="O150" s="8">
-        <v>167.2</v>
+        <v>901.8</v>
       </c>
       <c r="P150" s="9">
-        <v>17.399999999999999</v>
+        <v>24.4</v>
       </c>
       <c r="Q150" s="8">
-        <v>154.69999999999999</v>
+        <v>850.3</v>
       </c>
       <c r="R150" s="8">
-        <v>154.69999999999999</v>
+        <v>850.3</v>
       </c>
       <c r="S150" s="9">
-        <v>0</v>
+        <v>801.7</v>
       </c>
       <c r="T150" s="9">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="U150" s="14">
         <v>0</v>
@@ -11446,34 +11458,34 @@
         <v>308</v>
       </c>
       <c r="B151" s="3">
-        <v>23606</v>
+        <v>23613</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E151">
         <v>2594</v>
       </c>
-      <c r="F151" s="32">
-        <v>5</v>
-      </c>
-      <c r="G151" s="26" t="s">
-        <v>297</v>
+      <c r="F151" s="31">
+        <v>6</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I151">
-        <v>95.31</v>
+        <v>240.07</v>
       </c>
       <c r="J151">
-        <v>15393.62</v>
+        <v>23599.599999999999</v>
       </c>
       <c r="K151">
-        <v>176872.42800000001</v>
+        <v>288343.47600000002</v>
       </c>
       <c r="L151">
         <v>43.46</v>
@@ -11482,25 +11494,25 @@
         <v>-76.53</v>
       </c>
       <c r="N151">
-        <v>9422</v>
+        <v>9491</v>
       </c>
       <c r="O151" s="8">
         <v>901.8</v>
       </c>
       <c r="P151" s="9">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q151" s="8">
-        <v>850.3</v>
+        <v>835.2</v>
       </c>
       <c r="R151" s="8">
-        <v>850.3</v>
+        <v>835.2</v>
       </c>
       <c r="S151" s="9">
-        <v>801.7</v>
+        <v>815</v>
       </c>
       <c r="T151" s="9">
-        <v>827</v>
+        <v>827.5</v>
       </c>
       <c r="U151" s="14">
         <v>0</v>
@@ -11508,64 +11520,64 @@
     </row>
     <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B152" s="3">
-        <v>23613</v>
+        <v>23583</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E152">
-        <v>2594</v>
-      </c>
-      <c r="F152" s="32">
+        <v>2527</v>
+      </c>
+      <c r="F152" s="31">
         <v>6</v>
       </c>
-      <c r="G152" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>210</v>
+      <c r="G152" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I152">
-        <v>240.07</v>
+        <v>1123.8599999999999</v>
       </c>
       <c r="J152">
-        <v>23599.599999999999</v>
+        <v>60302.59</v>
       </c>
       <c r="K152">
-        <v>288343.47600000002</v>
+        <v>664721.49899999995</v>
       </c>
       <c r="L152">
-        <v>43.46</v>
+        <v>42.678899999999999</v>
       </c>
       <c r="M152">
-        <v>-76.53</v>
+        <v>-76.948300000000003</v>
       </c>
       <c r="N152">
-        <v>9491</v>
+        <v>3900</v>
       </c>
       <c r="O152" s="8">
-        <v>901.8</v>
+        <v>112.5</v>
       </c>
       <c r="P152" s="9">
-        <v>24.9</v>
+        <v>202.4</v>
       </c>
       <c r="Q152" s="8">
-        <v>835.2</v>
+        <v>106.3</v>
       </c>
       <c r="R152" s="8">
-        <v>835.2</v>
+        <v>106.3</v>
       </c>
       <c r="S152" s="9">
-        <v>815</v>
+        <v>104</v>
       </c>
       <c r="T152" s="9">
-        <v>827.5</v>
+        <v>104</v>
       </c>
       <c r="U152" s="14">
         <v>0</v>
@@ -11576,99 +11588,99 @@
         <v>311</v>
       </c>
       <c r="B153" s="3">
-        <v>23583</v>
+        <v>23780</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E153">
-        <v>2527</v>
-      </c>
-      <c r="F153" s="32">
-        <v>6</v>
-      </c>
-      <c r="G153" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>19</v>
+      <c r="E153" s="10">
+        <v>10464</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G153" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="I153">
-        <v>1123.8599999999999</v>
+        <v>8065.24</v>
       </c>
       <c r="J153">
-        <v>60302.59</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>664721.49899999995</v>
+        <v>1701032.868</v>
       </c>
       <c r="L153">
-        <v>42.678899999999999</v>
+        <v>44.036099999999998</v>
       </c>
       <c r="M153">
-        <v>-76.948300000000003</v>
+        <v>-75.771199999999993</v>
       </c>
       <c r="N153">
-        <v>3900</v>
-      </c>
-      <c r="O153" s="8">
-        <v>112.5</v>
-      </c>
-      <c r="P153" s="9">
-        <v>202.4</v>
-      </c>
-      <c r="Q153" s="8">
-        <v>106.3</v>
-      </c>
-      <c r="R153" s="8">
-        <v>106.3</v>
-      </c>
-      <c r="S153" s="9">
-        <v>104</v>
-      </c>
-      <c r="T153" s="9">
-        <v>104</v>
+        <v>288</v>
+      </c>
+      <c r="O153" s="13">
+        <v>55.5</v>
+      </c>
+      <c r="P153" s="14">
+        <v>203.4</v>
+      </c>
+      <c r="Q153" s="13">
+        <v>55.6</v>
+      </c>
+      <c r="R153" s="13">
+        <v>55.6</v>
+      </c>
+      <c r="S153" s="14">
+        <v>0</v>
+      </c>
+      <c r="T153" s="14">
+        <v>0</v>
       </c>
       <c r="U153" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B154" s="3">
-        <v>23780</v>
+        <v>23781</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E154" s="10">
         <v>10464</v>
       </c>
-      <c r="F154" s="33" t="s">
+      <c r="F154" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="G154" s="26" t="s">
-        <v>297</v>
+      <c r="G154" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I154">
-        <v>8065.24</v>
+        <v>7830.96</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154">
-        <v>1701032.868</v>
+        <v>1693866.8870000001</v>
       </c>
       <c r="L154">
         <v>44.036099999999998</v>
@@ -11703,37 +11715,37 @@
     </row>
     <row r="155" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B155" s="3">
-        <v>23781</v>
+        <v>23782</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E155" s="10">
         <v>10464</v>
       </c>
-      <c r="F155" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G155" s="26" t="s">
-        <v>297</v>
+      <c r="F155" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G155" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I155">
-        <v>7830.96</v>
+        <v>8177.84</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1693866.8870000001</v>
+        <v>1727523.564</v>
       </c>
       <c r="L155">
         <v>44.036099999999998</v>
@@ -11768,67 +11780,67 @@
     </row>
     <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B156" s="3">
-        <v>23782</v>
+        <v>23587</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="E156" s="10">
-        <v>10464</v>
-      </c>
-      <c r="F156" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D156" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G156" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>316</v>
+      <c r="E156">
+        <v>8006</v>
+      </c>
+      <c r="F156" s="31">
+        <v>1</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I156">
-        <v>8177.84</v>
+        <v>315.3</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>63288.38</v>
       </c>
       <c r="K156">
-        <v>1727523.564</v>
+        <v>681251.70299999998</v>
       </c>
       <c r="L156">
-        <v>44.036099999999998</v>
+        <v>41.571100000000001</v>
       </c>
       <c r="M156">
-        <v>-75.771199999999993</v>
+        <v>-73.9739</v>
       </c>
       <c r="N156">
-        <v>288</v>
-      </c>
-      <c r="O156" s="13">
-        <v>55.5</v>
-      </c>
-      <c r="P156" s="14">
-        <v>203.4</v>
-      </c>
-      <c r="Q156" s="13">
-        <v>55.6</v>
-      </c>
-      <c r="R156" s="13">
-        <v>55.6</v>
-      </c>
-      <c r="S156" s="14">
-        <v>0</v>
-      </c>
-      <c r="T156" s="14">
-        <v>0</v>
+        <v>4171</v>
+      </c>
+      <c r="O156" s="8">
+        <v>621</v>
+      </c>
+      <c r="P156" s="9">
+        <v>264.8</v>
+      </c>
+      <c r="Q156" s="8">
+        <v>614.79999999999995</v>
+      </c>
+      <c r="R156" s="8">
+        <v>614.79999999999995</v>
+      </c>
+      <c r="S156" s="9">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="T156" s="9">
+        <v>608</v>
       </c>
       <c r="U156" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -11836,34 +11848,34 @@
         <v>319</v>
       </c>
       <c r="B157" s="3">
-        <v>23587</v>
+        <v>23588</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E157">
         <v>8006</v>
       </c>
-      <c r="F157" s="32">
-        <v>1</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>297</v>
+      <c r="F157" s="31">
+        <v>2</v>
+      </c>
+      <c r="G157" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I157">
-        <v>315.3</v>
+        <v>526.44000000000005</v>
       </c>
       <c r="J157">
-        <v>63288.38</v>
+        <v>91551.48</v>
       </c>
       <c r="K157">
-        <v>681251.70299999998</v>
+        <v>1002123.148</v>
       </c>
       <c r="L157">
         <v>41.571100000000001</v>
@@ -11872,25 +11884,25 @@
         <v>-73.9739</v>
       </c>
       <c r="N157">
-        <v>4171</v>
+        <v>3900</v>
       </c>
       <c r="O157" s="8">
         <v>621</v>
       </c>
       <c r="P157" s="9">
-        <v>264.8</v>
+        <v>251.7</v>
       </c>
       <c r="Q157" s="8">
-        <v>614.79999999999995</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="R157" s="8">
-        <v>614.79999999999995</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="S157" s="9">
-        <v>584.20000000000005</v>
+        <v>600</v>
       </c>
       <c r="T157" s="9">
-        <v>608</v>
+        <v>603.5</v>
       </c>
       <c r="U157" s="14">
         <v>0</v>
@@ -11898,64 +11910,64 @@
     </row>
     <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B158" s="3">
-        <v>23588</v>
+        <v>23595</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>320</v>
+      <c r="D158" t="s">
+        <v>321</v>
       </c>
       <c r="E158">
-        <v>8006</v>
-      </c>
-      <c r="F158" s="32">
+        <v>2625</v>
+      </c>
+      <c r="F158" s="31">
         <v>2</v>
       </c>
-      <c r="G158" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>210</v>
+      <c r="G158" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I158">
-        <v>526.44000000000005</v>
+        <v>598.28</v>
       </c>
       <c r="J158">
-        <v>91551.48</v>
+        <v>154316.12</v>
       </c>
       <c r="K158">
-        <v>1002123.148</v>
+        <v>1725556.406</v>
       </c>
       <c r="L158">
-        <v>41.571100000000001</v>
+        <v>41.2044</v>
       </c>
       <c r="M158">
-        <v>-73.9739</v>
+        <v>-73.968900000000005</v>
       </c>
       <c r="N158">
-        <v>3900</v>
+        <v>3717</v>
       </c>
       <c r="O158" s="8">
         <v>621</v>
       </c>
       <c r="P158" s="9">
-        <v>251.7</v>
+        <v>229.3</v>
       </c>
       <c r="Q158" s="8">
-        <v>605.70000000000005</v>
+        <v>567.4</v>
       </c>
       <c r="R158" s="8">
-        <v>605.70000000000005</v>
+        <v>567.4</v>
       </c>
       <c r="S158" s="9">
-        <v>600</v>
+        <v>547.5</v>
       </c>
       <c r="T158" s="9">
-        <v>603.5</v>
+        <v>567.9</v>
       </c>
       <c r="U158" s="14">
         <v>0</v>
@@ -11966,34 +11978,34 @@
         <v>322</v>
       </c>
       <c r="B159" s="3">
-        <v>23595</v>
+        <v>23526</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E159">
         <v>2625</v>
       </c>
-      <c r="F159" s="32">
-        <v>2</v>
-      </c>
-      <c r="G159" s="26" t="s">
-        <v>297</v>
+      <c r="F159" s="31">
+        <v>1</v>
+      </c>
+      <c r="G159" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I159">
-        <v>598.28</v>
+        <v>574.80999999999995</v>
       </c>
       <c r="J159">
-        <v>154316.12</v>
+        <v>147049.82</v>
       </c>
       <c r="K159">
-        <v>1725556.406</v>
+        <v>1548383.54</v>
       </c>
       <c r="L159">
         <v>41.2044</v>
@@ -12002,25 +12014,25 @@
         <v>-73.968900000000005</v>
       </c>
       <c r="N159">
-        <v>3717</v>
+        <v>955.7</v>
       </c>
       <c r="O159" s="8">
         <v>621</v>
       </c>
       <c r="P159" s="9">
-        <v>229.3</v>
+        <v>238.4</v>
       </c>
       <c r="Q159" s="8">
-        <v>567.4</v>
+        <v>577.70000000000005</v>
       </c>
       <c r="R159" s="8">
-        <v>567.4</v>
+        <v>577.70000000000005</v>
       </c>
       <c r="S159" s="9">
-        <v>547.5</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="T159" s="9">
-        <v>567.9</v>
+        <v>549.5</v>
       </c>
       <c r="U159" s="14">
         <v>0</v>
@@ -12028,64 +12040,64 @@
     </row>
     <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B160" s="3">
-        <v>23526</v>
+        <v>23586</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E160">
-        <v>2625</v>
-      </c>
-      <c r="F160" s="32">
+        <v>2480</v>
+      </c>
+      <c r="F160" s="31">
         <v>1</v>
       </c>
-      <c r="G160" s="26" t="s">
-        <v>297</v>
+      <c r="G160" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I160">
-        <v>574.80999999999995</v>
+        <v>48.84</v>
       </c>
       <c r="J160">
-        <v>147049.82</v>
+        <v>1320.96</v>
       </c>
       <c r="K160">
-        <v>1548383.54</v>
+        <v>20107.064999999999</v>
       </c>
       <c r="L160">
-        <v>41.2044</v>
+        <v>41.573</v>
       </c>
       <c r="M160">
-        <v>-73.968900000000005</v>
+        <v>-73.964600000000004</v>
       </c>
       <c r="N160">
-        <v>955.7</v>
+        <v>3260</v>
       </c>
       <c r="O160" s="8">
-        <v>621</v>
+        <v>72</v>
       </c>
       <c r="P160" s="9">
-        <v>238.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q160" s="8">
-        <v>577.70000000000005</v>
+        <v>69</v>
       </c>
       <c r="R160" s="8">
-        <v>577.70000000000005</v>
+        <v>69</v>
       </c>
       <c r="S160" s="9">
-        <v>556.79999999999995</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="T160" s="9">
-        <v>549.5</v>
+        <v>69</v>
       </c>
       <c r="U160" s="14">
         <v>0</v>
@@ -12096,34 +12108,34 @@
         <v>325</v>
       </c>
       <c r="B161" s="3">
-        <v>23586</v>
+        <v>23589</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E161">
         <v>2480</v>
       </c>
-      <c r="F161" s="32">
-        <v>1</v>
-      </c>
-      <c r="G161" s="26" t="s">
-        <v>297</v>
+      <c r="F161" s="31">
+        <v>2</v>
+      </c>
+      <c r="G161" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I161">
-        <v>48.84</v>
+        <v>44.92</v>
       </c>
       <c r="J161">
-        <v>1320.96</v>
+        <v>1316.2</v>
       </c>
       <c r="K161">
-        <v>20107.064999999999</v>
+        <v>17982.235000000001</v>
       </c>
       <c r="L161">
         <v>41.573</v>
@@ -12132,25 +12144,25 @@
         <v>-73.964600000000004</v>
       </c>
       <c r="N161">
-        <v>3260</v>
+        <v>2419</v>
       </c>
       <c r="O161" s="8">
-        <v>72</v>
+        <v>73.5</v>
       </c>
       <c r="P161" s="9">
         <v>2.7</v>
       </c>
       <c r="Q161" s="8">
-        <v>69</v>
+        <v>64.7</v>
       </c>
       <c r="R161" s="8">
-        <v>69</v>
+        <v>64.7</v>
       </c>
       <c r="S161" s="9">
-        <v>69.599999999999994</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="T161" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U161" s="14">
         <v>0</v>
@@ -12158,37 +12170,37 @@
     </row>
     <row r="162" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B162" s="3">
-        <v>23589</v>
+        <v>23590</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E162">
         <v>2480</v>
       </c>
-      <c r="F162" s="32">
-        <v>2</v>
-      </c>
-      <c r="G162" s="26" t="s">
-        <v>297</v>
+      <c r="F162" s="31">
+        <v>3</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I162">
-        <v>44.92</v>
+        <v>48.36</v>
       </c>
       <c r="J162">
-        <v>1316.2</v>
+        <v>2958.42</v>
       </c>
       <c r="K162">
-        <v>17982.235000000001</v>
+        <v>32221.203000000001</v>
       </c>
       <c r="L162">
         <v>41.573</v>
@@ -12197,25 +12209,25 @@
         <v>-73.964600000000004</v>
       </c>
       <c r="N162">
-        <v>2419</v>
+        <v>2075</v>
       </c>
       <c r="O162" s="8">
-        <v>73.5</v>
+        <v>147.1</v>
       </c>
       <c r="P162" s="9">
-        <v>2.7</v>
+        <v>14.2</v>
       </c>
       <c r="Q162" s="8">
-        <v>64.7</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="R162" s="8">
-        <v>64.7</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="S162" s="9">
-        <v>65.099999999999994</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="T162" s="9">
-        <v>67</v>
+        <v>140.6</v>
       </c>
       <c r="U162" s="14">
         <v>0</v>
@@ -12223,37 +12235,37 @@
     </row>
     <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B163" s="3">
-        <v>23590</v>
+        <v>23591</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E163">
         <v>2480</v>
       </c>
-      <c r="F163" s="32">
-        <v>3</v>
-      </c>
-      <c r="G163" s="26" t="s">
-        <v>297</v>
+      <c r="F163" s="31">
+        <v>4</v>
+      </c>
+      <c r="G163" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I163">
-        <v>48.36</v>
+        <v>49.23</v>
       </c>
       <c r="J163">
-        <v>2958.42</v>
+        <v>3956.8</v>
       </c>
       <c r="K163">
-        <v>32221.203000000001</v>
+        <v>38219.042000000001</v>
       </c>
       <c r="L163">
         <v>41.573</v>
@@ -12262,25 +12274,25 @@
         <v>-73.964600000000004</v>
       </c>
       <c r="N163">
-        <v>2075</v>
+        <v>2100</v>
       </c>
       <c r="O163" s="8">
-        <v>147.1</v>
+        <v>239.4</v>
       </c>
       <c r="P163" s="9">
-        <v>14.2</v>
+        <v>10.9</v>
       </c>
       <c r="Q163" s="8">
-        <v>139.19999999999999</v>
+        <v>238.2</v>
       </c>
       <c r="R163" s="8">
-        <v>139.19999999999999</v>
+        <v>238.2</v>
       </c>
       <c r="S163" s="9">
-        <v>136.69999999999999</v>
+        <v>224</v>
       </c>
       <c r="T163" s="9">
-        <v>140.6</v>
+        <v>228.7</v>
       </c>
       <c r="U163" s="14">
         <v>0</v>
@@ -12288,72 +12300,72 @@
     </row>
     <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" s="3">
+        <v>23516</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B164" s="3">
-        <v>23591</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D164" t="s">
-        <v>326</v>
-      </c>
-      <c r="E164">
-        <v>2480</v>
-      </c>
-      <c r="F164" s="32">
-        <v>4</v>
-      </c>
-      <c r="G164" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>19</v>
+      <c r="E164" s="10">
+        <v>8906</v>
+      </c>
+      <c r="F164" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G164" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="I164">
-        <v>49.23</v>
+        <v>4251.43</v>
       </c>
       <c r="J164">
-        <v>3956.8</v>
+        <v>436522.97</v>
       </c>
       <c r="K164">
-        <v>38219.042000000001</v>
+        <v>2559387.0210000002</v>
       </c>
       <c r="L164">
-        <v>41.573</v>
+        <v>40.786900000000003</v>
       </c>
       <c r="M164">
-        <v>-73.964600000000004</v>
+        <v>-73.912199999999999</v>
       </c>
       <c r="N164">
-        <v>2100</v>
-      </c>
-      <c r="O164" s="8">
-        <v>239.4</v>
-      </c>
-      <c r="P164" s="9">
-        <v>10.9</v>
-      </c>
-      <c r="Q164" s="8">
-        <v>238.2</v>
-      </c>
-      <c r="R164" s="8">
-        <v>238.2</v>
-      </c>
-      <c r="S164" s="9">
-        <v>224</v>
-      </c>
-      <c r="T164" s="9">
-        <v>228.7</v>
+        <v>1930</v>
+      </c>
+      <c r="O164" s="13">
+        <v>376</v>
+      </c>
+      <c r="P164" s="14">
+        <v>307.3</v>
+      </c>
+      <c r="Q164" s="13">
+        <v>369.9</v>
+      </c>
+      <c r="R164" s="13">
+        <v>369.9</v>
+      </c>
+      <c r="S164" s="14">
+        <v>370.2</v>
+      </c>
+      <c r="T164" s="14">
+        <v>373.2</v>
       </c>
       <c r="U164" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B165" s="3">
         <v>23516</v>
@@ -12362,28 +12374,28 @@
         <v>83</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E165" s="10">
         <v>8906</v>
       </c>
-      <c r="F165" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="G165" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H165" s="29" t="s">
+      <c r="F165" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G165" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H165" s="28" t="s">
         <v>210</v>
       </c>
       <c r="I165">
-        <v>4251.43</v>
+        <v>4252.37</v>
       </c>
       <c r="J165">
-        <v>436522.97</v>
+        <v>436527.55</v>
       </c>
       <c r="K165">
-        <v>2559387.0210000002</v>
+        <v>2437511.0099999998</v>
       </c>
       <c r="L165">
         <v>40.786900000000003</v>
@@ -12392,7 +12404,7 @@
         <v>-73.912199999999999</v>
       </c>
       <c r="N165">
-        <v>1930</v>
+        <v>1982</v>
       </c>
       <c r="O165" s="13">
         <v>376</v>
@@ -12418,37 +12430,37 @@
     </row>
     <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B166" s="3">
-        <v>23516</v>
+        <v>23518</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E166" s="10">
         <v>8906</v>
       </c>
-      <c r="F166" s="33" t="s">
+      <c r="F166" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="G166" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H166" s="29" t="s">
+      <c r="G166" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H166" s="28" t="s">
         <v>210</v>
       </c>
       <c r="I166">
-        <v>4252.37</v>
+        <v>2524.41</v>
       </c>
       <c r="J166">
-        <v>436527.55</v>
+        <v>280497.84000000003</v>
       </c>
       <c r="K166">
-        <v>2437511.0099999998</v>
+        <v>1585521.723</v>
       </c>
       <c r="L166">
         <v>40.786900000000003</v>
@@ -12457,25 +12469,25 @@
         <v>-73.912199999999999</v>
       </c>
       <c r="N166">
-        <v>1982</v>
+        <v>7000</v>
       </c>
       <c r="O166" s="13">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P166" s="14">
-        <v>307.3</v>
+        <v>757.8</v>
       </c>
       <c r="Q166" s="13">
-        <v>369.9</v>
+        <v>376.3</v>
       </c>
       <c r="R166" s="13">
-        <v>369.9</v>
+        <v>376.3</v>
       </c>
       <c r="S166" s="14">
-        <v>370.2</v>
+        <v>376.9</v>
       </c>
       <c r="T166" s="14">
-        <v>373.2</v>
+        <v>384.2</v>
       </c>
       <c r="U166" s="14">
         <v>1</v>
@@ -12483,7 +12495,7 @@
     </row>
     <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B167" s="3">
         <v>23518</v>
@@ -12492,28 +12504,28 @@
         <v>83</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E167" s="10">
         <v>8906</v>
       </c>
-      <c r="F167" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G167" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H167" s="29" t="s">
+      <c r="F167" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H167" s="28" t="s">
         <v>210</v>
       </c>
       <c r="I167">
-        <v>2524.41</v>
+        <v>2524.36</v>
       </c>
       <c r="J167">
-        <v>280497.84000000003</v>
+        <v>280497.78999999998</v>
       </c>
       <c r="K167">
-        <v>1585521.723</v>
+        <v>1553918.9080000001</v>
       </c>
       <c r="L167">
         <v>40.786900000000003</v>
@@ -12522,7 +12534,7 @@
         <v>-73.912199999999999</v>
       </c>
       <c r="N167">
-        <v>7000</v>
+        <v>1654</v>
       </c>
       <c r="O167" s="13">
         <v>387</v>
@@ -12548,75 +12560,75 @@
     </row>
     <row r="168" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B168" s="3">
-        <v>23518</v>
+        <v>23533</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D168" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E168" s="10">
-        <v>8906</v>
-      </c>
-      <c r="F168" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="G168" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H168" s="29" t="s">
+      <c r="D168" t="s">
+        <v>90</v>
+      </c>
+      <c r="E168">
+        <v>2500</v>
+      </c>
+      <c r="F168" s="31">
+        <v>10</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H168" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I168">
-        <v>2524.36</v>
+        <v>2172.4</v>
       </c>
       <c r="J168">
-        <v>280497.78999999998</v>
+        <v>265418.62</v>
       </c>
       <c r="K168">
-        <v>1553918.9080000001</v>
+        <v>2886167.8620000002</v>
       </c>
       <c r="L168">
-        <v>40.786900000000003</v>
+        <v>40.758499999999998</v>
       </c>
       <c r="M168">
-        <v>-73.912199999999999</v>
+        <v>-73.945099999999996</v>
       </c>
       <c r="N168">
-        <v>1654</v>
-      </c>
-      <c r="O168" s="13">
-        <v>387</v>
-      </c>
-      <c r="P168" s="14">
-        <v>757.8</v>
-      </c>
-      <c r="Q168" s="13">
-        <v>376.3</v>
-      </c>
-      <c r="R168" s="13">
-        <v>376.3</v>
-      </c>
-      <c r="S168" s="14">
-        <v>376.9</v>
-      </c>
-      <c r="T168" s="14">
-        <v>384.2</v>
+        <v>2000</v>
+      </c>
+      <c r="O168" s="8">
+        <v>400</v>
+      </c>
+      <c r="P168" s="9">
+        <v>598.70000000000005</v>
+      </c>
+      <c r="Q168" s="8">
+        <v>365.1</v>
+      </c>
+      <c r="R168" s="8">
+        <v>365.1</v>
+      </c>
+      <c r="S168" s="9">
+        <v>368</v>
+      </c>
+      <c r="T168" s="9">
+        <v>370.2</v>
       </c>
       <c r="U168" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B169" s="3">
-        <v>23533</v>
+        <v>23534</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>83</v>
@@ -12627,23 +12639,23 @@
       <c r="E169">
         <v>2500</v>
       </c>
-      <c r="F169" s="32">
-        <v>10</v>
-      </c>
-      <c r="G169" s="26" t="s">
-        <v>297</v>
+      <c r="F169" s="31">
+        <v>30</v>
+      </c>
+      <c r="G169" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I169">
-        <v>2172.4</v>
+        <v>642.28</v>
       </c>
       <c r="J169">
-        <v>265418.62</v>
+        <v>136082.20000000001</v>
       </c>
       <c r="K169">
-        <v>2886167.8620000002</v>
+        <v>1591384.1740000001</v>
       </c>
       <c r="L169">
         <v>40.758499999999998</v>
@@ -12652,25 +12664,25 @@
         <v>-73.945099999999996</v>
       </c>
       <c r="N169">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="O169" s="8">
         <v>400</v>
       </c>
       <c r="P169" s="9">
-        <v>598.70000000000005</v>
+        <v>579</v>
       </c>
       <c r="Q169" s="8">
-        <v>365.1</v>
+        <v>391.6</v>
       </c>
       <c r="R169" s="8">
-        <v>365.1</v>
+        <v>391.6</v>
       </c>
       <c r="S169" s="9">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="T169" s="9">
-        <v>370.2</v>
+        <v>375.7</v>
       </c>
       <c r="U169" s="14">
         <v>0</v>
@@ -12678,10 +12690,10 @@
     </row>
     <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B170" s="3">
-        <v>23534</v>
+        <v>23535</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>83</v>
@@ -12692,23 +12704,23 @@
       <c r="E170">
         <v>2500</v>
       </c>
-      <c r="F170" s="32">
-        <v>30</v>
-      </c>
-      <c r="G170" s="26" t="s">
-        <v>297</v>
+      <c r="F170" s="31">
+        <v>20</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I170">
-        <v>642.28</v>
+        <v>3372.44</v>
       </c>
       <c r="J170">
-        <v>136082.20000000001</v>
+        <v>433288.42</v>
       </c>
       <c r="K170">
-        <v>1591384.1740000001</v>
+        <v>4643308.8590000002</v>
       </c>
       <c r="L170">
         <v>40.758499999999998</v>
@@ -12717,25 +12729,25 @@
         <v>-73.945099999999996</v>
       </c>
       <c r="N170">
-        <v>3900</v>
+        <v>6987</v>
       </c>
       <c r="O170" s="8">
-        <v>400</v>
+        <v>1027</v>
       </c>
       <c r="P170" s="9">
-        <v>579</v>
+        <v>797.2</v>
       </c>
       <c r="Q170" s="8">
-        <v>391.6</v>
+        <v>986.8</v>
       </c>
       <c r="R170" s="8">
-        <v>391.6</v>
+        <v>986.8</v>
       </c>
       <c r="S170" s="9">
-        <v>374</v>
+        <v>975</v>
       </c>
       <c r="T170" s="9">
-        <v>375.7</v>
+        <v>976.2</v>
       </c>
       <c r="U170" s="14">
         <v>0</v>
@@ -12743,64 +12755,64 @@
     </row>
     <row r="171" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B171" s="3">
-        <v>23535</v>
+        <v>23512</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="E171">
-        <v>2500</v>
-      </c>
-      <c r="F171" s="32">
+        <v>2490</v>
+      </c>
+      <c r="F171" s="31">
         <v>20</v>
       </c>
-      <c r="G171" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>210</v>
+      <c r="G171" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I171">
-        <v>3372.44</v>
+        <v>6501.17</v>
       </c>
       <c r="J171">
-        <v>433288.42</v>
+        <v>756429.21</v>
       </c>
       <c r="K171">
-        <v>4643308.8590000002</v>
+        <v>8155041.5420000004</v>
       </c>
       <c r="L171">
-        <v>40.758499999999998</v>
+        <v>40.591500000000003</v>
       </c>
       <c r="M171">
-        <v>-73.945099999999996</v>
+        <v>-74.202699999999993</v>
       </c>
       <c r="N171">
-        <v>6987</v>
+        <v>3984</v>
       </c>
       <c r="O171" s="8">
-        <v>1027</v>
+        <v>376.2</v>
       </c>
       <c r="P171" s="9">
-        <v>797.2</v>
+        <v>454.4</v>
       </c>
       <c r="Q171" s="8">
-        <v>986.8</v>
+        <v>357.7</v>
       </c>
       <c r="R171" s="8">
-        <v>986.8</v>
+        <v>357.7</v>
       </c>
       <c r="S171" s="9">
-        <v>975</v>
+        <v>335.4</v>
       </c>
       <c r="T171" s="9">
-        <v>976.2</v>
+        <v>341.8</v>
       </c>
       <c r="U171" s="14">
         <v>0</v>
@@ -12811,61 +12823,61 @@
         <v>340</v>
       </c>
       <c r="B172" s="3">
-        <v>23512</v>
+        <v>23524</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D172" t="s">
-        <v>341</v>
+        <v>93</v>
       </c>
       <c r="E172">
-        <v>2490</v>
-      </c>
-      <c r="F172" s="32">
-        <v>20</v>
-      </c>
-      <c r="G172" s="26" t="s">
-        <v>297</v>
+        <v>2493</v>
+      </c>
+      <c r="F172" s="31">
+        <v>70</v>
+      </c>
+      <c r="G172" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I172">
-        <v>6501.17</v>
+        <v>4163</v>
       </c>
       <c r="J172">
-        <v>756429.21</v>
+        <v>0</v>
       </c>
       <c r="K172">
-        <v>8155041.5420000004</v>
+        <v>3908059.875</v>
       </c>
       <c r="L172">
-        <v>40.591500000000003</v>
+        <v>40.728099999999998</v>
       </c>
       <c r="M172">
-        <v>-74.202699999999993</v>
+        <v>-73.974199999999996</v>
       </c>
       <c r="N172">
-        <v>3984</v>
+        <v>2300</v>
       </c>
       <c r="O172" s="8">
-        <v>376.2</v>
+        <v>200</v>
       </c>
       <c r="P172" s="9">
-        <v>454.4</v>
+        <v>209.6</v>
       </c>
       <c r="Q172" s="8">
-        <v>357.7</v>
+        <v>186.7</v>
       </c>
       <c r="R172" s="8">
-        <v>357.7</v>
+        <v>186.7</v>
       </c>
       <c r="S172" s="9">
-        <v>335.4</v>
+        <v>182.5</v>
       </c>
       <c r="T172" s="9">
-        <v>341.8</v>
+        <v>188.4</v>
       </c>
       <c r="U172" s="14">
         <v>0</v>
@@ -12873,10 +12885,10 @@
     </row>
     <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B173" s="3">
-        <v>23524</v>
+        <v>23660</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>83</v>
@@ -12887,23 +12899,23 @@
       <c r="E173">
         <v>2493</v>
       </c>
-      <c r="F173" s="32">
-        <v>70</v>
-      </c>
-      <c r="G173" s="26" t="s">
-        <v>297</v>
+      <c r="F173" s="31">
+        <v>60</v>
+      </c>
+      <c r="G173" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I173">
-        <v>4163</v>
+        <v>6258.75</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>3908059.875</v>
+        <v>6652228</v>
       </c>
       <c r="L173">
         <v>40.728099999999998</v>
@@ -12912,25 +12924,25 @@
         <v>-73.974199999999996</v>
       </c>
       <c r="N173">
-        <v>2300</v>
+        <v>7600</v>
       </c>
       <c r="O173" s="8">
-        <v>200</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="P173" s="9">
-        <v>209.6</v>
+        <v>511.6</v>
       </c>
       <c r="Q173" s="8">
-        <v>186.7</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="R173" s="8">
-        <v>186.7</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="S173" s="9">
-        <v>182.5</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="T173" s="9">
-        <v>188.4</v>
+        <v>147.1</v>
       </c>
       <c r="U173" s="14">
         <v>0</v>
@@ -12938,64 +12950,64 @@
     </row>
     <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B174" s="3">
-        <v>23660</v>
+        <v>24149</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D174" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="E174">
-        <v>2493</v>
-      </c>
-      <c r="F174" s="32">
-        <v>60</v>
-      </c>
-      <c r="G174" s="26" t="s">
-        <v>297</v>
+        <v>8906</v>
+      </c>
+      <c r="F174" s="31">
+        <v>20</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I174">
-        <v>6258.75</v>
+        <v>128.16999999999999</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>7370.61</v>
       </c>
       <c r="K174">
-        <v>6652228</v>
+        <v>97407.986999999994</v>
       </c>
       <c r="L174">
-        <v>40.728099999999998</v>
+        <v>40.786900000000003</v>
       </c>
       <c r="M174">
-        <v>-73.974199999999996</v>
+        <v>-73.912199999999999</v>
       </c>
       <c r="N174">
-        <v>7600</v>
+        <v>3984</v>
       </c>
       <c r="O174" s="8">
-        <v>156.19999999999999</v>
+        <v>180</v>
       </c>
       <c r="P174" s="9">
-        <v>511.6</v>
+        <v>12.6</v>
       </c>
       <c r="Q174" s="8">
-        <v>144.30000000000001</v>
+        <v>177</v>
       </c>
       <c r="R174" s="8">
-        <v>144.30000000000001</v>
+        <v>177</v>
       </c>
       <c r="S174" s="9">
-        <v>145.30000000000001</v>
+        <v>172.4</v>
       </c>
       <c r="T174" s="9">
-        <v>147.1</v>
+        <v>170.5</v>
       </c>
       <c r="U174" s="14">
         <v>0</v>
@@ -13003,64 +13015,64 @@
     </row>
     <row r="175" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
-        <v>24149</v>
+        <v>23513</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D175" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E175">
-        <v>8906</v>
-      </c>
-      <c r="F175" s="32">
-        <v>20</v>
-      </c>
-      <c r="G175" s="26" t="s">
-        <v>297</v>
+        <v>2490</v>
+      </c>
+      <c r="F175" s="31">
+        <v>30</v>
+      </c>
+      <c r="G175" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I175">
-        <v>128.16999999999999</v>
+        <v>1274.04</v>
       </c>
       <c r="J175">
-        <v>7370.61</v>
+        <v>201520.82</v>
       </c>
       <c r="K175">
-        <v>97407.986999999994</v>
+        <v>2215484.0950000002</v>
       </c>
       <c r="L175">
-        <v>40.786900000000003</v>
+        <v>40.591500000000003</v>
       </c>
       <c r="M175">
-        <v>-73.912199999999999</v>
+        <v>-74.202699999999993</v>
       </c>
       <c r="N175">
-        <v>3984</v>
+        <v>3800</v>
       </c>
       <c r="O175" s="8">
-        <v>180</v>
+        <v>535.5</v>
       </c>
       <c r="P175" s="9">
-        <v>12.6</v>
+        <v>534.29999999999995</v>
       </c>
       <c r="Q175" s="8">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="R175" s="8">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="S175" s="9">
-        <v>172.4</v>
+        <v>519.4</v>
       </c>
       <c r="T175" s="9">
-        <v>170.5</v>
+        <v>522.9</v>
       </c>
       <c r="U175" s="14">
         <v>0</v>
@@ -13068,64 +13080,64 @@
     </row>
     <row r="176" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B176" s="3">
-        <v>23513</v>
+        <v>23555</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="E176">
-        <v>2490</v>
-      </c>
-      <c r="F176" s="32">
-        <v>30</v>
-      </c>
-      <c r="G176" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>19</v>
+        <v>2517</v>
+      </c>
+      <c r="F176" s="31">
+        <v>3</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I176">
-        <v>1274.04</v>
+        <v>1262.5</v>
       </c>
       <c r="J176">
-        <v>201520.82</v>
+        <v>120976</v>
       </c>
       <c r="K176">
-        <v>2215484.0950000002</v>
+        <v>1235383.75</v>
       </c>
       <c r="L176">
-        <v>40.591500000000003</v>
+        <v>40.950299999999999</v>
       </c>
       <c r="M176">
-        <v>-74.202699999999993</v>
+        <v>-73.078599999999994</v>
       </c>
       <c r="N176">
-        <v>3800</v>
+        <v>4094</v>
       </c>
       <c r="O176" s="8">
-        <v>535.5</v>
+        <v>188</v>
       </c>
       <c r="P176" s="9">
-        <v>534.29999999999995</v>
+        <v>172.7</v>
       </c>
       <c r="Q176" s="8">
-        <v>518</v>
+        <v>194.5</v>
       </c>
       <c r="R176" s="8">
-        <v>518</v>
+        <v>194.5</v>
       </c>
       <c r="S176" s="9">
-        <v>519.4</v>
+        <v>189</v>
       </c>
       <c r="T176" s="9">
-        <v>522.9</v>
+        <v>195</v>
       </c>
       <c r="U176" s="14">
         <v>0</v>
@@ -13133,37 +13145,37 @@
     </row>
     <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B177" s="3">
-        <v>23555</v>
+        <v>23616</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E177">
         <v>2517</v>
       </c>
-      <c r="F177" s="32">
-        <v>3</v>
-      </c>
-      <c r="G177" s="26" t="s">
-        <v>297</v>
+      <c r="F177" s="31">
+        <v>4</v>
+      </c>
+      <c r="G177" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I177">
-        <v>1262.5</v>
+        <v>2282.25</v>
       </c>
       <c r="J177">
-        <v>120976</v>
+        <v>180124.5</v>
       </c>
       <c r="K177">
-        <v>1235383.75</v>
+        <v>2068296.875</v>
       </c>
       <c r="L177">
         <v>40.950299999999999</v>
@@ -13172,25 +13184,25 @@
         <v>-73.078599999999994</v>
       </c>
       <c r="N177">
-        <v>4094</v>
+        <v>2300</v>
       </c>
       <c r="O177" s="8">
         <v>188</v>
       </c>
       <c r="P177" s="9">
-        <v>172.7</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="Q177" s="8">
-        <v>194.5</v>
+        <v>198.7</v>
       </c>
       <c r="R177" s="8">
-        <v>194.5</v>
+        <v>198.7</v>
       </c>
       <c r="S177" s="9">
-        <v>189</v>
+        <v>189.5</v>
       </c>
       <c r="T177" s="9">
-        <v>195</v>
+        <v>191.7</v>
       </c>
       <c r="U177" s="14">
         <v>0</v>
@@ -13198,64 +13210,64 @@
     </row>
     <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B178" s="3">
-        <v>23616</v>
+        <v>23545</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E178">
-        <v>2517</v>
-      </c>
-      <c r="F178" s="32">
-        <v>4</v>
-      </c>
-      <c r="G178" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>210</v>
+        <v>2511</v>
+      </c>
+      <c r="F178" s="31">
+        <v>10</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I178">
-        <v>2282.25</v>
+        <v>7281.25</v>
       </c>
       <c r="J178">
-        <v>180124.5</v>
+        <v>916430.5</v>
       </c>
       <c r="K178">
-        <v>2068296.875</v>
+        <v>9697815.8249999993</v>
       </c>
       <c r="L178">
-        <v>40.950299999999999</v>
+        <v>40.616900000000001</v>
       </c>
       <c r="M178">
-        <v>-73.078599999999994</v>
+        <v>-73.648600000000002</v>
       </c>
       <c r="N178">
-        <v>2300</v>
+        <v>4204</v>
       </c>
       <c r="O178" s="8">
         <v>188</v>
       </c>
       <c r="P178" s="9">
-        <v>155.19999999999999</v>
+        <v>566.9</v>
       </c>
       <c r="Q178" s="8">
-        <v>198.7</v>
+        <v>200.2</v>
       </c>
       <c r="R178" s="8">
-        <v>198.7</v>
+        <v>200.2</v>
       </c>
       <c r="S178" s="9">
-        <v>189.5</v>
+        <v>197.2</v>
       </c>
       <c r="T178" s="9">
-        <v>191.7</v>
+        <v>197.2</v>
       </c>
       <c r="U178" s="14">
         <v>0</v>
@@ -13263,10 +13275,10 @@
     </row>
     <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>23545</v>
+        <v>23546</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>111</v>
@@ -13277,23 +13289,23 @@
       <c r="E179">
         <v>2511</v>
       </c>
-      <c r="F179" s="32">
-        <v>10</v>
-      </c>
-      <c r="G179" s="26" t="s">
-        <v>297</v>
+      <c r="F179" s="31">
+        <v>20</v>
+      </c>
+      <c r="G179" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I179">
-        <v>7281.25</v>
+        <v>4198.5</v>
       </c>
       <c r="J179">
-        <v>916430.5</v>
+        <v>508862.75</v>
       </c>
       <c r="K179">
-        <v>9697815.8249999993</v>
+        <v>5235747.875</v>
       </c>
       <c r="L179">
         <v>40.616900000000001</v>
@@ -13302,25 +13314,25 @@
         <v>-73.648600000000002</v>
       </c>
       <c r="N179">
-        <v>4204</v>
+        <v>9379</v>
       </c>
       <c r="O179" s="8">
         <v>188</v>
       </c>
       <c r="P179" s="9">
-        <v>566.9</v>
+        <v>721.4</v>
       </c>
       <c r="Q179" s="8">
-        <v>200.2</v>
+        <v>197.5</v>
       </c>
       <c r="R179" s="8">
-        <v>200.2</v>
+        <v>197.5</v>
       </c>
       <c r="S179" s="9">
-        <v>197.2</v>
+        <v>187.7</v>
       </c>
       <c r="T179" s="9">
-        <v>197.2</v>
+        <v>193</v>
       </c>
       <c r="U179" s="14">
         <v>0</v>
@@ -13328,64 +13340,64 @@
     </row>
     <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B180" s="3">
-        <v>23546</v>
+        <v>23551</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="E180">
-        <v>2511</v>
-      </c>
-      <c r="F180" s="32">
-        <v>20</v>
-      </c>
-      <c r="G180" s="26" t="s">
-        <v>297</v>
+        <v>2516</v>
+      </c>
+      <c r="F180" s="31">
+        <v>1</v>
+      </c>
+      <c r="G180" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H180" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I180">
-        <v>4198.5</v>
+        <v>1836.25</v>
       </c>
       <c r="J180">
-        <v>508862.75</v>
+        <v>364416.75</v>
       </c>
       <c r="K180">
-        <v>5235747.875</v>
+        <v>3716312.05</v>
       </c>
       <c r="L180">
-        <v>40.616900000000001</v>
+        <v>40.923099999999998</v>
       </c>
       <c r="M180">
-        <v>-73.648600000000002</v>
+        <v>-73.341700000000003</v>
       </c>
       <c r="N180">
-        <v>9379</v>
+        <v>4074</v>
       </c>
       <c r="O180" s="8">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="P180" s="9">
-        <v>721.4</v>
+        <v>340.3</v>
       </c>
       <c r="Q180" s="8">
-        <v>197.5</v>
+        <v>395</v>
       </c>
       <c r="R180" s="8">
-        <v>197.5</v>
+        <v>395</v>
       </c>
       <c r="S180" s="9">
-        <v>187.7</v>
+        <v>397.2</v>
       </c>
       <c r="T180" s="9">
-        <v>193</v>
+        <v>395</v>
       </c>
       <c r="U180" s="14">
         <v>0</v>
@@ -13396,34 +13408,34 @@
         <v>350</v>
       </c>
       <c r="B181" s="3">
-        <v>23551</v>
+        <v>23552</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E181">
         <v>2516</v>
       </c>
-      <c r="F181" s="32">
-        <v>1</v>
-      </c>
-      <c r="G181" s="26" t="s">
-        <v>297</v>
+      <c r="F181" s="31">
+        <v>2</v>
+      </c>
+      <c r="G181" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I181">
-        <v>1836.25</v>
+        <v>2678</v>
       </c>
       <c r="J181">
-        <v>364416.75</v>
+        <v>565367.75</v>
       </c>
       <c r="K181">
-        <v>3716312.05</v>
+        <v>6041787.5499999998</v>
       </c>
       <c r="L181">
         <v>40.923099999999998</v>
@@ -13438,19 +13450,19 @@
         <v>387</v>
       </c>
       <c r="P181" s="9">
-        <v>340.3</v>
+        <v>665.4</v>
       </c>
       <c r="Q181" s="8">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R181" s="8">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S181" s="9">
-        <v>397.2</v>
+        <v>399.7</v>
       </c>
       <c r="T181" s="9">
-        <v>395</v>
+        <v>397.5</v>
       </c>
       <c r="U181" s="14">
         <v>0</v>
@@ -13458,37 +13470,37 @@
     </row>
     <row r="182" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B182" s="3">
-        <v>23552</v>
+        <v>23650</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D182" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E182">
         <v>2516</v>
       </c>
-      <c r="F182" s="32">
-        <v>2</v>
-      </c>
-      <c r="G182" s="26" t="s">
-        <v>297</v>
+      <c r="F182" s="31">
+        <v>4</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I182">
-        <v>2678</v>
+        <v>3220.75</v>
       </c>
       <c r="J182">
-        <v>565367.75</v>
+        <v>672960</v>
       </c>
       <c r="K182">
-        <v>6041787.5499999998</v>
+        <v>6927217.75</v>
       </c>
       <c r="L182">
         <v>40.923099999999998</v>
@@ -13497,25 +13509,25 @@
         <v>-73.341700000000003</v>
       </c>
       <c r="N182">
-        <v>4074</v>
+        <v>4094</v>
       </c>
       <c r="O182" s="8">
         <v>387</v>
       </c>
       <c r="P182" s="9">
-        <v>665.4</v>
+        <v>746.1</v>
       </c>
       <c r="Q182" s="8">
-        <v>396</v>
+        <v>399.2</v>
       </c>
       <c r="R182" s="8">
-        <v>396</v>
+        <v>399.2</v>
       </c>
       <c r="S182" s="9">
-        <v>399.7</v>
+        <v>380</v>
       </c>
       <c r="T182" s="9">
-        <v>397.5</v>
+        <v>373.7</v>
       </c>
       <c r="U182" s="14">
         <v>0</v>
@@ -13523,37 +13535,37 @@
     </row>
     <row r="183" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B183" s="3">
-        <v>23650</v>
+        <v>23553</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E183">
         <v>2516</v>
       </c>
-      <c r="F183" s="32">
-        <v>4</v>
-      </c>
-      <c r="G183" s="26" t="s">
-        <v>297</v>
+      <c r="F183" s="31">
+        <v>3</v>
+      </c>
+      <c r="G183" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I183">
-        <v>3220.75</v>
+        <v>2675</v>
       </c>
       <c r="J183">
-        <v>672960</v>
+        <v>579122.5</v>
       </c>
       <c r="K183">
-        <v>6927217.75</v>
+        <v>5867220.9000000004</v>
       </c>
       <c r="L183">
         <v>40.923099999999998</v>
@@ -13562,13 +13574,13 @@
         <v>-73.341700000000003</v>
       </c>
       <c r="N183">
-        <v>4094</v>
+        <v>7031</v>
       </c>
       <c r="O183" s="8">
         <v>387</v>
       </c>
       <c r="P183" s="9">
-        <v>746.1</v>
+        <v>932.1</v>
       </c>
       <c r="Q183" s="8">
         <v>399.2</v>
@@ -13577,82 +13589,17 @@
         <v>399.2</v>
       </c>
       <c r="S183" s="9">
-        <v>380</v>
+        <v>397.7</v>
       </c>
       <c r="T183" s="9">
-        <v>373.7</v>
+        <v>395</v>
       </c>
       <c r="U183" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B184" s="3">
-        <v>23553</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D184" t="s">
-        <v>351</v>
-      </c>
-      <c r="E184">
-        <v>2516</v>
-      </c>
-      <c r="F184" s="32">
-        <v>3</v>
-      </c>
-      <c r="G184" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I184">
-        <v>2675</v>
-      </c>
-      <c r="J184">
-        <v>579122.5</v>
-      </c>
-      <c r="K184">
-        <v>5867220.9000000004</v>
-      </c>
-      <c r="L184">
-        <v>40.923099999999998</v>
-      </c>
-      <c r="M184">
-        <v>-73.341700000000003</v>
-      </c>
-      <c r="N184">
-        <v>7031</v>
-      </c>
-      <c r="O184" s="8">
-        <v>387</v>
-      </c>
-      <c r="P184" s="9">
-        <v>932.1</v>
-      </c>
-      <c r="Q184" s="8">
-        <v>399.2</v>
-      </c>
-      <c r="R184" s="8">
-        <v>399.2</v>
-      </c>
-      <c r="S184" s="9">
-        <v>397.7</v>
-      </c>
-      <c r="T184" s="9">
-        <v>395</v>
-      </c>
-      <c r="U184" s="14">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U184" xr:uid="{0DB88690-C7FE-4C2E-8D04-5F6FFB6B4287}"/>
+  <autoFilter ref="A1:U183" xr:uid="{0DB88690-C7FE-4C2E-8D04-5F6FFB6B4287}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13669,17 +13616,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
